--- a/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
+++ b/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
@@ -32355,3022 +32355,6 @@
           <val>
             <numRef>
               <f>full!$BL$2:$BL$496</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="495"/>
-                <pt idx="0">
-                  <v>26.14</v>
-                </pt>
-                <pt idx="1">
-                  <v>27.9</v>
-                </pt>
-                <pt idx="2">
-                  <v>30.51</v>
-                </pt>
-                <pt idx="3">
-                  <v>32.78</v>
-                </pt>
-                <pt idx="4">
-                  <v>37.03</v>
-                </pt>
-                <pt idx="5">
-                  <v>41.83</v>
-                </pt>
-                <pt idx="6">
-                  <v>47.05</v>
-                </pt>
-                <pt idx="7">
-                  <v>52.19</v>
-                </pt>
-                <pt idx="8">
-                  <v>57.14</v>
-                </pt>
-                <pt idx="9">
-                  <v>60.45</v>
-                </pt>
-                <pt idx="10">
-                  <v>65.23</v>
-                </pt>
-                <pt idx="11">
-                  <v>69.29000000000001</v>
-                </pt>
-                <pt idx="12">
-                  <v>73</v>
-                </pt>
-                <pt idx="13">
-                  <v>76.36</v>
-                </pt>
-                <pt idx="14">
-                  <v>78.42</v>
-                </pt>
-                <pt idx="15">
-                  <v>81.27</v>
-                </pt>
-                <pt idx="16">
-                  <v>83.78</v>
-                </pt>
-                <pt idx="17">
-                  <v>85.90000000000001</v>
-                </pt>
-                <pt idx="18">
-                  <v>87.73</v>
-                </pt>
-                <pt idx="19">
-                  <v>89.40000000000001</v>
-                </pt>
-                <pt idx="20">
-                  <v>90.38</v>
-                </pt>
-                <pt idx="21">
-                  <v>91.72</v>
-                </pt>
-                <pt idx="22">
-                  <v>92.88</v>
-                </pt>
-                <pt idx="23">
-                  <v>93.89</v>
-                </pt>
-                <pt idx="24">
-                  <v>94.75</v>
-                </pt>
-                <pt idx="25">
-                  <v>95.53</v>
-                </pt>
-                <pt idx="26">
-                  <v>96</v>
-                </pt>
-                <pt idx="27">
-                  <v>96.61</v>
-                </pt>
-                <pt idx="28">
-                  <v>97.16</v>
-                </pt>
-                <pt idx="29">
-                  <v>97.62</v>
-                </pt>
-                <pt idx="30">
-                  <v>98.01000000000001</v>
-                </pt>
-                <pt idx="31">
-                  <v>98.25</v>
-                </pt>
-                <pt idx="32">
-                  <v>98.59999999999999</v>
-                </pt>
-                <pt idx="33">
-                  <v>98.90000000000001</v>
-                </pt>
-                <pt idx="34">
-                  <v>99.18000000000001</v>
-                </pt>
-                <pt idx="35">
-                  <v>99.41</v>
-                </pt>
-                <pt idx="36">
-                  <v>99.63</v>
-                </pt>
-                <pt idx="37">
-                  <v>99.77</v>
-                </pt>
-                <pt idx="38">
-                  <v>99.93000000000001</v>
-                </pt>
-                <pt idx="39">
-                  <v>100.1</v>
-                </pt>
-                <pt idx="40">
-                  <v>100.24</v>
-                </pt>
-                <pt idx="41">
-                  <v>100.35</v>
-                </pt>
-                <pt idx="42">
-                  <v>100.43</v>
-                </pt>
-                <pt idx="43">
-                  <v>100.56</v>
-                </pt>
-                <pt idx="44">
-                  <v>100.67</v>
-                </pt>
-                <pt idx="45">
-                  <v>100.77</v>
-                </pt>
-                <pt idx="46">
-                  <v>100.84</v>
-                </pt>
-                <pt idx="47">
-                  <v>100.92</v>
-                </pt>
-                <pt idx="48">
-                  <v>100.97</v>
-                </pt>
-                <pt idx="49">
-                  <v>101.05</v>
-                </pt>
-                <pt idx="50">
-                  <v>101.12</v>
-                </pt>
-                <pt idx="51">
-                  <v>101.17</v>
-                </pt>
-                <pt idx="52">
-                  <v>101.22</v>
-                </pt>
-                <pt idx="53">
-                  <v>101.28</v>
-                </pt>
-                <pt idx="54">
-                  <v>101.33</v>
-                </pt>
-                <pt idx="55">
-                  <v>101.39</v>
-                </pt>
-                <pt idx="56">
-                  <v>101.43</v>
-                </pt>
-                <pt idx="57">
-                  <v>101.47</v>
-                </pt>
-                <pt idx="58">
-                  <v>101.51</v>
-                </pt>
-                <pt idx="59">
-                  <v>101.56</v>
-                </pt>
-                <pt idx="60">
-                  <v>101.58</v>
-                </pt>
-                <pt idx="61">
-                  <v>101.62</v>
-                </pt>
-                <pt idx="62">
-                  <v>101.65</v>
-                </pt>
-                <pt idx="63">
-                  <v>101.69</v>
-                </pt>
-                <pt idx="64">
-                  <v>101.73</v>
-                </pt>
-                <pt idx="65">
-                  <v>101.76</v>
-                </pt>
-                <pt idx="66">
-                  <v>101.8</v>
-                </pt>
-                <pt idx="67">
-                  <v>101.82</v>
-                </pt>
-                <pt idx="68">
-                  <v>101.84</v>
-                </pt>
-                <pt idx="69">
-                  <v>101.87</v>
-                </pt>
-                <pt idx="70">
-                  <v>101.9</v>
-                </pt>
-                <pt idx="71">
-                  <v>101.92</v>
-                </pt>
-                <pt idx="72">
-                  <v>101.95</v>
-                </pt>
-                <pt idx="73">
-                  <v>101.97</v>
-                </pt>
-                <pt idx="74">
-                  <v>101.99</v>
-                </pt>
-                <pt idx="75">
-                  <v>102.01</v>
-                </pt>
-                <pt idx="76">
-                  <v>102.04</v>
-                </pt>
-                <pt idx="77">
-                  <v>102.07</v>
-                </pt>
-                <pt idx="78">
-                  <v>102.08</v>
-                </pt>
-                <pt idx="79">
-                  <v>102.1</v>
-                </pt>
-                <pt idx="80">
-                  <v>102.12</v>
-                </pt>
-                <pt idx="81">
-                  <v>102.13</v>
-                </pt>
-                <pt idx="82">
-                  <v>102.16</v>
-                </pt>
-                <pt idx="83">
-                  <v>102.18</v>
-                </pt>
-                <pt idx="84">
-                  <v>102.2</v>
-                </pt>
-                <pt idx="85">
-                  <v>102.21</v>
-                </pt>
-                <pt idx="86">
-                  <v>102.21</v>
-                </pt>
-                <pt idx="87">
-                  <v>102.25</v>
-                </pt>
-                <pt idx="88">
-                  <v>102.27</v>
-                </pt>
-                <pt idx="89">
-                  <v>102.28</v>
-                </pt>
-                <pt idx="90">
-                  <v>102.31</v>
-                </pt>
-                <pt idx="91">
-                  <v>102.32</v>
-                </pt>
-                <pt idx="92">
-                  <v>102.33</v>
-                </pt>
-                <pt idx="93">
-                  <v>102.36</v>
-                </pt>
-                <pt idx="94">
-                  <v>102.38</v>
-                </pt>
-                <pt idx="95">
-                  <v>102.39</v>
-                </pt>
-                <pt idx="96">
-                  <v>102.4</v>
-                </pt>
-                <pt idx="97">
-                  <v>102.41</v>
-                </pt>
-                <pt idx="98">
-                  <v>102.41</v>
-                </pt>
-                <pt idx="99">
-                  <v>102.45</v>
-                </pt>
-                <pt idx="100">
-                  <v>102.49</v>
-                </pt>
-                <pt idx="101">
-                  <v>102.48</v>
-                </pt>
-                <pt idx="102">
-                  <v>102.5</v>
-                </pt>
-                <pt idx="103">
-                  <v>102.52</v>
-                </pt>
-                <pt idx="104">
-                  <v>102.53</v>
-                </pt>
-                <pt idx="105">
-                  <v>102.53</v>
-                </pt>
-                <pt idx="106">
-                  <v>102.57</v>
-                </pt>
-                <pt idx="107">
-                  <v>102.59</v>
-                </pt>
-                <pt idx="108">
-                  <v>102.59</v>
-                </pt>
-                <pt idx="109">
-                  <v>102.61</v>
-                </pt>
-                <pt idx="110">
-                  <v>102.63</v>
-                </pt>
-                <pt idx="111">
-                  <v>102.66</v>
-                </pt>
-                <pt idx="112">
-                  <v>102.67</v>
-                </pt>
-                <pt idx="113">
-                  <v>102.67</v>
-                </pt>
-                <pt idx="114">
-                  <v>102.69</v>
-                </pt>
-                <pt idx="115">
-                  <v>102.69</v>
-                </pt>
-                <pt idx="116">
-                  <v>102.71</v>
-                </pt>
-                <pt idx="117">
-                  <v>102.72</v>
-                </pt>
-                <pt idx="118">
-                  <v>102.75</v>
-                </pt>
-                <pt idx="119">
-                  <v>102.77</v>
-                </pt>
-                <pt idx="120">
-                  <v>102.78</v>
-                </pt>
-                <pt idx="121">
-                  <v>102.77</v>
-                </pt>
-                <pt idx="122">
-                  <v>102.79</v>
-                </pt>
-                <pt idx="123">
-                  <v>102.8</v>
-                </pt>
-                <pt idx="124">
-                  <v>102.82</v>
-                </pt>
-                <pt idx="125">
-                  <v>102.83</v>
-                </pt>
-                <pt idx="126">
-                  <v>102.85</v>
-                </pt>
-                <pt idx="127">
-                  <v>102.87</v>
-                </pt>
-                <pt idx="128">
-                  <v>102.86</v>
-                </pt>
-                <pt idx="129">
-                  <v>102.88</v>
-                </pt>
-                <pt idx="130">
-                  <v>102.88</v>
-                </pt>
-                <pt idx="131">
-                  <v>102.9</v>
-                </pt>
-                <pt idx="132">
-                  <v>102.92</v>
-                </pt>
-                <pt idx="133">
-                  <v>102.95</v>
-                </pt>
-                <pt idx="134">
-                  <v>102.95</v>
-                </pt>
-                <pt idx="135">
-                  <v>102.96</v>
-                </pt>
-                <pt idx="136">
-                  <v>102.97</v>
-                </pt>
-                <pt idx="137">
-                  <v>102.99</v>
-                </pt>
-                <pt idx="138">
-                  <v>102.99</v>
-                </pt>
-                <pt idx="139">
-                  <v>102.99</v>
-                </pt>
-                <pt idx="140">
-                  <v>103.01</v>
-                </pt>
-                <pt idx="141">
-                  <v>103.02</v>
-                </pt>
-                <pt idx="142">
-                  <v>103.04</v>
-                </pt>
-                <pt idx="143">
-                  <v>103.05</v>
-                </pt>
-                <pt idx="144">
-                  <v>103.07</v>
-                </pt>
-                <pt idx="145">
-                  <v>103.06</v>
-                </pt>
-                <pt idx="146">
-                  <v>103.07</v>
-                </pt>
-                <pt idx="147">
-                  <v>103.07</v>
-                </pt>
-                <pt idx="148">
-                  <v>103.08</v>
-                </pt>
-                <pt idx="149">
-                  <v>103.1</v>
-                </pt>
-                <pt idx="150">
-                  <v>103.11</v>
-                </pt>
-                <pt idx="151">
-                  <v>103.11</v>
-                </pt>
-                <pt idx="152">
-                  <v>103.13</v>
-                </pt>
-                <pt idx="153">
-                  <v>103.14</v>
-                </pt>
-                <pt idx="154">
-                  <v>103.15</v>
-                </pt>
-                <pt idx="155">
-                  <v>103.17</v>
-                </pt>
-                <pt idx="156">
-                  <v>103.17</v>
-                </pt>
-                <pt idx="157">
-                  <v>103.17</v>
-                </pt>
-                <pt idx="158">
-                  <v>103.19</v>
-                </pt>
-                <pt idx="159">
-                  <v>103.21</v>
-                </pt>
-                <pt idx="160">
-                  <v>103.22</v>
-                </pt>
-                <pt idx="161">
-                  <v>103.22</v>
-                </pt>
-                <pt idx="162">
-                  <v>103.23</v>
-                </pt>
-                <pt idx="163">
-                  <v>103.24</v>
-                </pt>
-                <pt idx="164">
-                  <v>103.24</v>
-                </pt>
-                <pt idx="165">
-                  <v>103.26</v>
-                </pt>
-                <pt idx="166">
-                  <v>103.28</v>
-                </pt>
-                <pt idx="167">
-                  <v>103.29</v>
-                </pt>
-                <pt idx="168">
-                  <v>103.28</v>
-                </pt>
-                <pt idx="169">
-                  <v>103.31</v>
-                </pt>
-                <pt idx="170">
-                  <v>103.3</v>
-                </pt>
-                <pt idx="171">
-                  <v>103.32</v>
-                </pt>
-                <pt idx="172">
-                  <v>103.33</v>
-                </pt>
-                <pt idx="173">
-                  <v>103.34</v>
-                </pt>
-                <pt idx="174">
-                  <v>103.36</v>
-                </pt>
-                <pt idx="175">
-                  <v>103.36</v>
-                </pt>
-                <pt idx="176">
-                  <v>103.36</v>
-                </pt>
-                <pt idx="177">
-                  <v>103.38</v>
-                </pt>
-                <pt idx="178">
-                  <v>103.38</v>
-                </pt>
-                <pt idx="179">
-                  <v>103.38</v>
-                </pt>
-                <pt idx="180">
-                  <v>103.39</v>
-                </pt>
-                <pt idx="181">
-                  <v>103.41</v>
-                </pt>
-                <pt idx="182">
-                  <v>103.42</v>
-                </pt>
-                <pt idx="183">
-                  <v>103.42</v>
-                </pt>
-                <pt idx="184">
-                  <v>103.44</v>
-                </pt>
-                <pt idx="185">
-                  <v>103.44</v>
-                </pt>
-                <pt idx="186">
-                  <v>103.45</v>
-                </pt>
-                <pt idx="187">
-                  <v>103.46</v>
-                </pt>
-                <pt idx="188">
-                  <v>103.46</v>
-                </pt>
-                <pt idx="189">
-                  <v>103.49</v>
-                </pt>
-                <pt idx="190">
-                  <v>103.49</v>
-                </pt>
-                <pt idx="191">
-                  <v>103.49</v>
-                </pt>
-                <pt idx="192">
-                  <v>103.51</v>
-                </pt>
-                <pt idx="193">
-                  <v>103.51</v>
-                </pt>
-                <pt idx="194">
-                  <v>103.52</v>
-                </pt>
-                <pt idx="195">
-                  <v>103.54</v>
-                </pt>
-                <pt idx="196">
-                  <v>103.54</v>
-                </pt>
-                <pt idx="197">
-                  <v>103.54</v>
-                </pt>
-                <pt idx="198">
-                  <v>103.55</v>
-                </pt>
-                <pt idx="199">
-                  <v>103.57</v>
-                </pt>
-                <pt idx="200">
-                  <v>103.57</v>
-                </pt>
-                <pt idx="201">
-                  <v>103.58</v>
-                </pt>
-                <pt idx="202">
-                  <v>103.6</v>
-                </pt>
-                <pt idx="203">
-                  <v>103.59</v>
-                </pt>
-                <pt idx="204">
-                  <v>103.61</v>
-                </pt>
-                <pt idx="205">
-                  <v>103.62</v>
-                </pt>
-                <pt idx="206">
-                  <v>103.62</v>
-                </pt>
-                <pt idx="207">
-                  <v>103.62</v>
-                </pt>
-                <pt idx="208">
-                  <v>103.63</v>
-                </pt>
-                <pt idx="209">
-                  <v>103.64</v>
-                </pt>
-                <pt idx="210">
-                  <v>103.66</v>
-                </pt>
-                <pt idx="211">
-                  <v>103.67</v>
-                </pt>
-                <pt idx="212">
-                  <v>103.67</v>
-                </pt>
-                <pt idx="213">
-                  <v>103.7</v>
-                </pt>
-                <pt idx="214">
-                  <v>103.69</v>
-                </pt>
-                <pt idx="215">
-                  <v>103.68</v>
-                </pt>
-                <pt idx="216">
-                  <v>103.68</v>
-                </pt>
-                <pt idx="217">
-                  <v>103.69</v>
-                </pt>
-                <pt idx="218">
-                  <v>103.73</v>
-                </pt>
-                <pt idx="219">
-                  <v>103.72</v>
-                </pt>
-                <pt idx="220">
-                  <v>103.74</v>
-                </pt>
-                <pt idx="221">
-                  <v>103.75</v>
-                </pt>
-                <pt idx="222">
-                  <v>103.75</v>
-                </pt>
-                <pt idx="223">
-                  <v>103.75</v>
-                </pt>
-                <pt idx="224">
-                  <v>103.76</v>
-                </pt>
-                <pt idx="225">
-                  <v>103.77</v>
-                </pt>
-                <pt idx="226">
-                  <v>103.77</v>
-                </pt>
-                <pt idx="227">
-                  <v>103.78</v>
-                </pt>
-                <pt idx="228">
-                  <v>103.78</v>
-                </pt>
-                <pt idx="229">
-                  <v>103.79</v>
-                </pt>
-                <pt idx="230">
-                  <v>103.81</v>
-                </pt>
-                <pt idx="231">
-                  <v>103.78</v>
-                </pt>
-                <pt idx="232">
-                  <v>103.79</v>
-                </pt>
-                <pt idx="233">
-                  <v>103.8</v>
-                </pt>
-                <pt idx="234">
-                  <v>103.8</v>
-                </pt>
-                <pt idx="235">
-                  <v>103.8</v>
-                </pt>
-                <pt idx="236">
-                  <v>103.81</v>
-                </pt>
-                <pt idx="237">
-                  <v>103.83</v>
-                </pt>
-                <pt idx="238">
-                  <v>103.83</v>
-                </pt>
-                <pt idx="239">
-                  <v>103.83</v>
-                </pt>
-                <pt idx="240">
-                  <v>103.84</v>
-                </pt>
-                <pt idx="241">
-                  <v>103.84</v>
-                </pt>
-                <pt idx="242">
-                  <v>103.85</v>
-                </pt>
-                <pt idx="243">
-                  <v>103.86</v>
-                </pt>
-                <pt idx="244">
-                  <v>103.87</v>
-                </pt>
-                <pt idx="245">
-                  <v>103.86</v>
-                </pt>
-                <pt idx="246">
-                  <v>103.86</v>
-                </pt>
-                <pt idx="247">
-                  <v>103.88</v>
-                </pt>
-                <pt idx="248">
-                  <v>103.89</v>
-                </pt>
-                <pt idx="249">
-                  <v>103.9</v>
-                </pt>
-                <pt idx="250">
-                  <v>103.91</v>
-                </pt>
-                <pt idx="251">
-                  <v>103.89</v>
-                </pt>
-                <pt idx="252">
-                  <v>103.9</v>
-                </pt>
-                <pt idx="253">
-                  <v>103.91</v>
-                </pt>
-                <pt idx="254">
-                  <v>103.91</v>
-                </pt>
-                <pt idx="255">
-                  <v>103.92</v>
-                </pt>
-                <pt idx="256">
-                  <v>103.92</v>
-                </pt>
-                <pt idx="257">
-                  <v>103.93</v>
-                </pt>
-                <pt idx="258">
-                  <v>103.94</v>
-                </pt>
-                <pt idx="259">
-                  <v>103.93</v>
-                </pt>
-                <pt idx="260">
-                  <v>103.94</v>
-                </pt>
-                <pt idx="261">
-                  <v>103.96</v>
-                </pt>
-                <pt idx="262">
-                  <v>103.94</v>
-                </pt>
-                <pt idx="263">
-                  <v>103.95</v>
-                </pt>
-                <pt idx="264">
-                  <v>103.96</v>
-                </pt>
-                <pt idx="265">
-                  <v>103.96</v>
-                </pt>
-                <pt idx="266">
-                  <v>103.97</v>
-                </pt>
-                <pt idx="267">
-                  <v>103.97</v>
-                </pt>
-                <pt idx="268">
-                  <v>103.96</v>
-                </pt>
-                <pt idx="269">
-                  <v>103.96</v>
-                </pt>
-                <pt idx="270">
-                  <v>103.98</v>
-                </pt>
-                <pt idx="271">
-                  <v>103.99</v>
-                </pt>
-                <pt idx="272">
-                  <v>104</v>
-                </pt>
-                <pt idx="273">
-                  <v>104.01</v>
-                </pt>
-                <pt idx="274">
-                  <v>104</v>
-                </pt>
-                <pt idx="275">
-                  <v>104</v>
-                </pt>
-                <pt idx="276">
-                  <v>104.01</v>
-                </pt>
-                <pt idx="277">
-                  <v>104.01</v>
-                </pt>
-                <pt idx="278">
-                  <v>104.01</v>
-                </pt>
-                <pt idx="279">
-                  <v>104.01</v>
-                </pt>
-                <pt idx="280">
-                  <v>104.03</v>
-                </pt>
-                <pt idx="281">
-                  <v>104.02</v>
-                </pt>
-                <pt idx="282">
-                  <v>104.03</v>
-                </pt>
-                <pt idx="283">
-                  <v>104.04</v>
-                </pt>
-                <pt idx="284">
-                  <v>104.03</v>
-                </pt>
-                <pt idx="285">
-                  <v>104.05</v>
-                </pt>
-                <pt idx="286">
-                  <v>104.04</v>
-                </pt>
-                <pt idx="287">
-                  <v>104.04</v>
-                </pt>
-                <pt idx="288">
-                  <v>104.05</v>
-                </pt>
-                <pt idx="289">
-                  <v>104.05</v>
-                </pt>
-                <pt idx="290">
-                  <v>104.06</v>
-                </pt>
-                <pt idx="291">
-                  <v>104.07</v>
-                </pt>
-                <pt idx="292">
-                  <v>104.08</v>
-                </pt>
-                <pt idx="293">
-                  <v>104.08</v>
-                </pt>
-                <pt idx="294">
-                  <v>104.08</v>
-                </pt>
-                <pt idx="295">
-                  <v>104.08</v>
-                </pt>
-                <pt idx="296">
-                  <v>104.09</v>
-                </pt>
-                <pt idx="297">
-                  <v>104.09</v>
-                </pt>
-                <pt idx="298">
-                  <v>104.09</v>
-                </pt>
-                <pt idx="299">
-                  <v>104.1</v>
-                </pt>
-                <pt idx="300">
-                  <v>104.11</v>
-                </pt>
-                <pt idx="301">
-                  <v>104.12</v>
-                </pt>
-                <pt idx="302">
-                  <v>104.12</v>
-                </pt>
-                <pt idx="303">
-                  <v>104.11</v>
-                </pt>
-                <pt idx="304">
-                  <v>104.1</v>
-                </pt>
-                <pt idx="305">
-                  <v>104.12</v>
-                </pt>
-                <pt idx="306">
-                  <v>104.12</v>
-                </pt>
-                <pt idx="307">
-                  <v>104.13</v>
-                </pt>
-                <pt idx="308">
-                  <v>104.15</v>
-                </pt>
-                <pt idx="309">
-                  <v>104.13</v>
-                </pt>
-                <pt idx="310">
-                  <v>104.14</v>
-                </pt>
-                <pt idx="311">
-                  <v>104.14</v>
-                </pt>
-                <pt idx="312">
-                  <v>104.14</v>
-                </pt>
-                <pt idx="313">
-                  <v>104.15</v>
-                </pt>
-                <pt idx="314">
-                  <v>104.14</v>
-                </pt>
-                <pt idx="315">
-                  <v>104.14</v>
-                </pt>
-                <pt idx="316">
-                  <v>104.17</v>
-                </pt>
-                <pt idx="317">
-                  <v>104.16</v>
-                </pt>
-                <pt idx="318">
-                  <v>104.15</v>
-                </pt>
-                <pt idx="319">
-                  <v>104.17</v>
-                </pt>
-                <pt idx="320">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="321">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="322">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="323">
-                  <v>104.17</v>
-                </pt>
-                <pt idx="324">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="325">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="326">
-                  <v>104.18</v>
-                </pt>
-                <pt idx="327">
-                  <v>104.19</v>
-                </pt>
-                <pt idx="328">
-                  <v>104.19</v>
-                </pt>
-                <pt idx="329">
-                  <v>104.19</v>
-                </pt>
-                <pt idx="330">
-                  <v>104.19</v>
-                </pt>
-                <pt idx="331">
-                  <v>104.21</v>
-                </pt>
-                <pt idx="332">
-                  <v>104.21</v>
-                </pt>
-                <pt idx="333">
-                  <v>104.2</v>
-                </pt>
-                <pt idx="334">
-                  <v>104.19</v>
-                </pt>
-                <pt idx="335">
-                  <v>104.2</v>
-                </pt>
-                <pt idx="336">
-                  <v>104.21</v>
-                </pt>
-                <pt idx="337">
-                  <v>104.23</v>
-                </pt>
-                <pt idx="338">
-                  <v>104.24</v>
-                </pt>
-                <pt idx="339">
-                  <v>104.24</v>
-                </pt>
-                <pt idx="340">
-                  <v>104.24</v>
-                </pt>
-                <pt idx="341">
-                  <v>104.22</v>
-                </pt>
-                <pt idx="342">
-                  <v>104.23</v>
-                </pt>
-                <pt idx="343">
-                  <v>104.25</v>
-                </pt>
-                <pt idx="344">
-                  <v>104.24</v>
-                </pt>
-                <pt idx="345">
-                  <v>104.25</v>
-                </pt>
-                <pt idx="346">
-                  <v>104.25</v>
-                </pt>
-                <pt idx="347">
-                  <v>104.27</v>
-                </pt>
-                <pt idx="348">
-                  <v>104.26</v>
-                </pt>
-                <pt idx="349">
-                  <v>104.28</v>
-                </pt>
-                <pt idx="350">
-                  <v>104.27</v>
-                </pt>
-                <pt idx="351">
-                  <v>104.26</v>
-                </pt>
-                <pt idx="352">
-                  <v>104.26</v>
-                </pt>
-                <pt idx="353">
-                  <v>104.26</v>
-                </pt>
-                <pt idx="354">
-                  <v>104.27</v>
-                </pt>
-                <pt idx="355">
-                  <v>104.27</v>
-                </pt>
-                <pt idx="356">
-                  <v>104.28</v>
-                </pt>
-                <pt idx="357">
-                  <v>104.27</v>
-                </pt>
-                <pt idx="358">
-                  <v>104.29</v>
-                </pt>
-                <pt idx="359">
-                  <v>104.28</v>
-                </pt>
-                <pt idx="360">
-                  <v>104.28</v>
-                </pt>
-                <pt idx="361">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="362">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="363">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="364">
-                  <v>104.29</v>
-                </pt>
-                <pt idx="365">
-                  <v>104.29</v>
-                </pt>
-                <pt idx="366">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="367">
-                  <v>104.29</v>
-                </pt>
-                <pt idx="368">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="369">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="370">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="371">
-                  <v>104.29</v>
-                </pt>
-                <pt idx="372">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="373">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="374">
-                  <v>104.32</v>
-                </pt>
-                <pt idx="375">
-                  <v>104.32</v>
-                </pt>
-                <pt idx="376">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="377">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="378">
-                  <v>104.3</v>
-                </pt>
-                <pt idx="379">
-                  <v>104.31</v>
-                </pt>
-                <pt idx="380">
-                  <v>104.33</v>
-                </pt>
-                <pt idx="381">
-                  <v>104.33</v>
-                </pt>
-                <pt idx="382">
-                  <v>104.33</v>
-                </pt>
-                <pt idx="383">
-                  <v>104.33</v>
-                </pt>
-                <pt idx="384">
-                  <v>104.32</v>
-                </pt>
-                <pt idx="385">
-                  <v>104.33</v>
-                </pt>
-                <pt idx="386">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="387">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="388">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="389">
-                  <v>104.36</v>
-                </pt>
-                <pt idx="390">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="391">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="392">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="393">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="394">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="395">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="396">
-                  <v>104.35</v>
-                </pt>
-                <pt idx="397">
-                  <v>104.36</v>
-                </pt>
-                <pt idx="398">
-                  <v>104.36</v>
-                </pt>
-                <pt idx="399">
-                  <v>104.37</v>
-                </pt>
-                <pt idx="400">
-                  <v>104.37</v>
-                </pt>
-                <pt idx="401">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="402">
-                  <v>104.38</v>
-                </pt>
-                <pt idx="403">
-                  <v>104.37</v>
-                </pt>
-                <pt idx="404">
-                  <v>104.36</v>
-                </pt>
-                <pt idx="405">
-                  <v>104.36</v>
-                </pt>
-                <pt idx="406">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="407">
-                  <v>104.38</v>
-                </pt>
-                <pt idx="408">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="409">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="410">
-                  <v>104.37</v>
-                </pt>
-                <pt idx="411">
-                  <v>104.37</v>
-                </pt>
-                <pt idx="412">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="413">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="414">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="415">
-                  <v>104.39</v>
-                </pt>
-                <pt idx="416">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="417">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="418">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="419">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="420">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="421">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="422">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="423">
-                  <v>104.4</v>
-                </pt>
-                <pt idx="424">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="425">
-                  <v>104.42</v>
-                </pt>
-                <pt idx="426">
-                  <v>104.43</v>
-                </pt>
-                <pt idx="427">
-                  <v>104.42</v>
-                </pt>
-                <pt idx="428">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="429">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="430">
-                  <v>104.41</v>
-                </pt>
-                <pt idx="431">
-                  <v>104.42</v>
-                </pt>
-                <pt idx="432">
-                  <v>104.43</v>
-                </pt>
-                <pt idx="433">
-                  <v>104.42</v>
-                </pt>
-                <pt idx="434">
-                  <v>104.42</v>
-                </pt>
-                <pt idx="435">
-                  <v>104.43</v>
-                </pt>
-                <pt idx="436">
-                  <v>104.44</v>
-                </pt>
-                <pt idx="437">
-                  <v>104.44</v>
-                </pt>
-                <pt idx="438">
-                  <v>104.44</v>
-                </pt>
-                <pt idx="439">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="440">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="441">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="442">
-                  <v>104.43</v>
-                </pt>
-                <pt idx="443">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="444">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="445">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="446">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="447">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="448">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="449">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="450">
-                  <v>104.45</v>
-                </pt>
-                <pt idx="451">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="452">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="453">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="454">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="455">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="456">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="457">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="458">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="459">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="460">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="461">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="462">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="463">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="464">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="465">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="466">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="467">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="468">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="469">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="470">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="471">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="472">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="473">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="474">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="475">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="476">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="477">
-                  <v>104.46</v>
-                </pt>
-                <pt idx="478">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="479">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="480">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="481">
-                  <v>104.47</v>
-                </pt>
-                <pt idx="482">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="483">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="484">
-                  <v>104.5</v>
-                </pt>
-                <pt idx="485">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="486">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="487">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="488">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="489">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="490">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="491">
-                  <v>104.49</v>
-                </pt>
-                <pt idx="492">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="493">
-                  <v>104.48</v>
-                </pt>
-                <pt idx="494">
-                  <v>104.49</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="21"/>
-          <order val="21"/>
-          <tx>
-            <strRef>
-              <f>full!$BM$2</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>PCR #46 202301053.txt</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>full!$BN$2:$BN$496</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="495"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.1490000000012515</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.305000000000291</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.4500000000007276</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.6000000000003638</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.7510000000002037</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.9009999999998399</v>
-                </pt>
-                <pt idx="7">
-                  <v>1.051000000001295</v>
-                </pt>
-                <pt idx="8">
-                  <v>1.207000000000335</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.352000000000771</v>
-                </pt>
-                <pt idx="10">
-                  <v>1.503000000000611</v>
-                </pt>
-                <pt idx="11">
-                  <v>1.659999999999854</v>
-                </pt>
-                <pt idx="12">
-                  <v>1.81000000000131</v>
-                </pt>
-                <pt idx="13">
-                  <v>1.965000000000146</v>
-                </pt>
-                <pt idx="14">
-                  <v>2.117000000000189</v>
-                </pt>
-                <pt idx="15">
-                  <v>2.266999999999825</v>
-                </pt>
-                <pt idx="16">
-                  <v>2.412000000000262</v>
-                </pt>
-                <pt idx="17">
-                  <v>2.565000000000509</v>
-                </pt>
-                <pt idx="18">
-                  <v>2.699000000000524</v>
-                </pt>
-                <pt idx="19">
-                  <v>2.856999999999971</v>
-                </pt>
-                <pt idx="20">
-                  <v>3.002000000000407</v>
-                </pt>
-                <pt idx="21">
-                  <v>3.15099999999984</v>
-                </pt>
-                <pt idx="22">
-                  <v>3.30199999999968</v>
-                </pt>
-                <pt idx="23">
-                  <v>3.451000000000931</v>
-                </pt>
-                <pt idx="24">
-                  <v>3.602000000000771</v>
-                </pt>
-                <pt idx="25">
-                  <v>3.757000000001426</v>
-                </pt>
-                <pt idx="26">
-                  <v>3.903000000000247</v>
-                </pt>
-                <pt idx="27">
-                  <v>4.05199999999968</v>
-                </pt>
-                <pt idx="28">
-                  <v>4.203000000001339</v>
-                </pt>
-                <pt idx="29">
-                  <v>4.352000000000771</v>
-                </pt>
-                <pt idx="30">
-                  <v>4.504000000000815</v>
-                </pt>
-                <pt idx="31">
-                  <v>4.654000000000451</v>
-                </pt>
-                <pt idx="32">
-                  <v>4.802999999999884</v>
-                </pt>
-                <pt idx="33">
-                  <v>4.953999999999724</v>
-                </pt>
-                <pt idx="34">
-                  <v>5.104000000001179</v>
-                </pt>
-                <pt idx="35">
-                  <v>5.253000000000611</v>
-                </pt>
-                <pt idx="36">
-                  <v>5.412000000000262</v>
-                </pt>
-                <pt idx="37">
-                  <v>5.556000000000495</v>
-                </pt>
-                <pt idx="38">
-                  <v>5.706000000000131</v>
-                </pt>
-                <pt idx="39">
-                  <v>5.864000000001397</v>
-                </pt>
-                <pt idx="40">
-                  <v>6.015000000001237</v>
-                </pt>
-                <pt idx="41">
-                  <v>6.165000000000873</v>
-                </pt>
-                <pt idx="42">
-                  <v>6.319999999999709</v>
-                </pt>
-                <pt idx="43">
-                  <v>6.465000000000146</v>
-                </pt>
-                <pt idx="44">
-                  <v>6.615999999999985</v>
-                </pt>
-                <pt idx="45">
-                  <v>6.765000000001237</v>
-                </pt>
-                <pt idx="46">
-                  <v>6.916000000001077</v>
-                </pt>
-                <pt idx="47">
-                  <v>7.070999999999913</v>
-                </pt>
-                <pt idx="48">
-                  <v>7.221999999999753</v>
-                </pt>
-                <pt idx="49">
-                  <v>7.373000000001412</v>
-                </pt>
-                <pt idx="50">
-                  <v>7.516999999999825</v>
-                </pt>
-                <pt idx="51">
-                  <v>7.667000000001281</v>
-                </pt>
-                <pt idx="52">
-                  <v>7.816000000000713</v>
-                </pt>
-                <pt idx="53">
-                  <v>7.970000000001164</v>
-                </pt>
-                <pt idx="54">
-                  <v>8.125</v>
-                </pt>
-                <pt idx="55">
-                  <v>8.268000000000029</v>
-                </pt>
-                <pt idx="56">
-                  <v>8.416000000001077</v>
-                </pt>
-                <pt idx="57">
-                  <v>8.569999999999709</v>
-                </pt>
-                <pt idx="58">
-                  <v>8.720000000001164</v>
-                </pt>
-                <pt idx="59">
-                  <v>8.871000000001004</v>
-                </pt>
-                <pt idx="60">
-                  <v>9.027000000000044</v>
-                </pt>
-                <pt idx="61">
-                  <v>9.17200000000048</v>
-                </pt>
-                <pt idx="62">
-                  <v>9.320999999999913</v>
-                </pt>
-                <pt idx="63">
-                  <v>9.471999999999753</v>
-                </pt>
-                <pt idx="64">
-                  <v>9.622000000001208</v>
-                </pt>
-                <pt idx="65">
-                  <v>9.777000000000044</v>
-                </pt>
-                <pt idx="66">
-                  <v>9.927999999999884</v>
-                </pt>
-                <pt idx="67">
-                  <v>10.07700000000114</v>
-                </pt>
-                <pt idx="68">
-                  <v>10.22100000000137</v>
-                </pt>
-                <pt idx="69">
-                  <v>10.3739999999998</v>
-                </pt>
-                <pt idx="70">
-                  <v>10.52300000000105</v>
-                </pt>
-                <pt idx="71">
-                  <v>10.67799999999988</v>
-                </pt>
-                <pt idx="72">
-                  <v>10.82999999999993</v>
-                </pt>
-                <pt idx="73">
-                  <v>10.98000000000138</v>
-                </pt>
-                <pt idx="74">
-                  <v>11.125</v>
-                </pt>
-                <pt idx="75">
-                  <v>11.27599999999984</v>
-                </pt>
-                <pt idx="76">
-                  <v>11.42500000000109</v>
-                </pt>
-                <pt idx="77">
-                  <v>11.57700000000114</v>
-                </pt>
-                <pt idx="78">
-                  <v>11.73400000000038</v>
-                </pt>
-                <pt idx="79">
-                  <v>11.88500000000022</v>
-                </pt>
-                <pt idx="80">
-                  <v>12.02900000000045</v>
-                </pt>
-                <pt idx="81">
-                  <v>12.17900000000009</v>
-                </pt>
-                <pt idx="82">
-                  <v>12.32999999999993</v>
-                </pt>
-                <pt idx="83">
-                  <v>12.48000000000138</v>
-                </pt>
-                <pt idx="84">
-                  <v>12.63600000000042</v>
-                </pt>
-                <pt idx="85">
-                  <v>12.78600000000006</v>
-                </pt>
-                <pt idx="86">
-                  <v>12.93500000000131</v>
-                </pt>
-                <pt idx="87">
-                  <v>13.07999999999993</v>
-                </pt>
-                <pt idx="88">
-                  <v>13.22900000000118</v>
-                </pt>
-                <pt idx="89">
-                  <v>13.38000000000102</v>
-                </pt>
-                <pt idx="90">
-                  <v>13.53399999999965</v>
-                </pt>
-                <pt idx="91">
-                  <v>13.68599999999969</v>
-                </pt>
-                <pt idx="92">
-                  <v>13.83600000000115</v>
-                </pt>
-                <pt idx="93">
-                  <v>13.98099999999977</v>
-                </pt>
-                <pt idx="94">
-                  <v>14.13200000000143</v>
-                </pt>
-                <pt idx="95">
-                  <v>14.28200000000106</v>
-                </pt>
-                <pt idx="96">
-                  <v>14.4330000000009</v>
-                </pt>
-                <pt idx="97">
-                  <v>14.58799999999974</v>
-                </pt>
-                <pt idx="98">
-                  <v>14.73800000000119</v>
-                </pt>
-                <pt idx="99">
-                  <v>14.88200000000143</v>
-                </pt>
-                <pt idx="100">
-                  <v>15.03300000000127</v>
-                </pt>
-                <pt idx="101">
-                  <v>15.18400000000111</v>
-                </pt>
-                <pt idx="102">
-                  <v>15.33300000000054</v>
-                </pt>
-                <pt idx="103">
-                  <v>15.4890000000014</v>
-                </pt>
-                <pt idx="104">
-                  <v>15.64100000000144</v>
-                </pt>
-                <pt idx="105">
-                  <v>15.78499999999985</v>
-                </pt>
-                <pt idx="106">
-                  <v>15.93599999999969</v>
-                </pt>
-                <pt idx="107">
-                  <v>16.08500000000095</v>
-                </pt>
-                <pt idx="108">
-                  <v>16.23700000000099</v>
-                </pt>
-                <pt idx="109">
-                  <v>16.39100000000144</v>
-                </pt>
-                <pt idx="110">
-                  <v>16.53600000000006</v>
-                </pt>
-                <pt idx="111">
-                  <v>16.6869999999999</v>
-                </pt>
-                <pt idx="112">
-                  <v>16.83799999999974</v>
-                </pt>
-                <pt idx="113">
-                  <v>16.98800000000119</v>
-                </pt>
-                <pt idx="114">
-                  <v>17.14400000000023</v>
-                </pt>
-                <pt idx="115">
-                  <v>17.29500000000007</v>
-                </pt>
-                <pt idx="116">
-                  <v>17.4380000000001</v>
-                </pt>
-                <pt idx="117">
-                  <v>17.58899999999994</v>
-                </pt>
-                <pt idx="118">
-                  <v>17.73999999999978</v>
-                </pt>
-                <pt idx="119">
-                  <v>17.89000000000124</v>
-                </pt>
-                <pt idx="120">
-                  <v>18.04399999999987</v>
-                </pt>
-                <pt idx="121">
-                  <v>18.19599999999991</v>
-                </pt>
-                <pt idx="122">
-                  <v>18.33899999999994</v>
-                </pt>
-                <pt idx="123">
-                  <v>18.48999999999978</v>
-                </pt>
-                <pt idx="124">
-                  <v>18.64000000000124</v>
-                </pt>
-                <pt idx="125">
-                  <v>18.79100000000108</v>
-                </pt>
-                <pt idx="126">
-                  <v>18.94599999999991</v>
-                </pt>
-                <pt idx="127">
-                  <v>19.09699999999975</v>
-                </pt>
-                <pt idx="128">
-                  <v>19.24200000000019</v>
-                </pt>
-                <pt idx="129">
-                  <v>19.39199999999983</v>
-                </pt>
-                <pt idx="130">
-                  <v>19.54200000000128</v>
-                </pt>
-                <pt idx="131">
-                  <v>19.69599999999991</v>
-                </pt>
-                <pt idx="132">
-                  <v>19.84799999999996</v>
-                </pt>
-                <pt idx="133">
-                  <v>19.99800000000141</v>
-                </pt>
-                <pt idx="134">
-                  <v>20.14300000000003</v>
-                </pt>
-                <pt idx="135">
-                  <v>20.29299999999967</v>
-                </pt>
-                <pt idx="136">
-                  <v>20.44300000000112</v>
-                </pt>
-                <pt idx="137">
-                  <v>20.59699999999975</v>
-                </pt>
-                <pt idx="138">
-                  <v>20.7489999999998</v>
-                </pt>
-                <pt idx="139">
-                  <v>20.89999999999964</v>
-                </pt>
-                <pt idx="140">
-                  <v>21.04399999999987</v>
-                </pt>
-                <pt idx="141">
-                  <v>21.19599999999991</v>
-                </pt>
-                <pt idx="142">
-                  <v>21.34600000000137</v>
-                </pt>
-                <pt idx="143">
-                  <v>21.49700000000121</v>
-                </pt>
-                <pt idx="144">
-                  <v>21.65099999999984</v>
-                </pt>
-                <pt idx="145">
-                  <v>21.79700000000048</v>
-                </pt>
-                <pt idx="146">
-                  <v>21.94700000000012</v>
-                </pt>
-                <pt idx="147">
-                  <v>22.09799999999996</v>
-                </pt>
-                <pt idx="148">
-                  <v>22.24800000000141</v>
-                </pt>
-                <pt idx="149">
-                  <v>22.40400000000045</v>
-                </pt>
-                <pt idx="150">
-                  <v>22.55400000000009</v>
-                </pt>
-                <pt idx="151">
-                  <v>22.70399999999972</v>
-                </pt>
-                <pt idx="152">
-                  <v>22.85000000000036</v>
-                </pt>
-                <pt idx="153">
-                  <v>22.9989999999998</v>
-                </pt>
-                <pt idx="154">
-                  <v>23.14900000000125</v>
-                </pt>
-                <pt idx="155">
-                  <v>23.30299999999988</v>
-                </pt>
-                <pt idx="156">
-                  <v>23.45600000000013</v>
-                </pt>
-                <pt idx="157">
-                  <v>23.60500000000138</v>
-                </pt>
-                <pt idx="158">
-                  <v>23.75</v>
-                </pt>
-                <pt idx="159">
-                  <v>23.90099999999984</v>
-                </pt>
-                <pt idx="160">
-                  <v>24.0510000000013</v>
-                </pt>
-                <pt idx="161">
-                  <v>24.20700000000033</v>
-                </pt>
-                <pt idx="162">
-                  <v>24.35800000000017</v>
-                </pt>
-                <pt idx="163">
-                  <v>24.50200000000041</v>
-                </pt>
-                <pt idx="164">
-                  <v>24.65200000000004</v>
-                </pt>
-                <pt idx="165">
-                  <v>24.80199999999968</v>
-                </pt>
-                <pt idx="166">
-                  <v>24.95200000000114</v>
-                </pt>
-                <pt idx="167">
-                  <v>25.11200000000099</v>
-                </pt>
-                <pt idx="168">
-                  <v>25.26300000000083</v>
-                </pt>
-                <pt idx="169">
-                  <v>25.40700000000106</v>
-                </pt>
-                <pt idx="170">
-                  <v>25.5580000000009</v>
-                </pt>
-                <pt idx="171">
-                  <v>25.70800000000054</v>
-                </pt>
-                <pt idx="172">
-                  <v>25.86000000000058</v>
-                </pt>
-                <pt idx="173">
-                  <v>26.01400000000103</v>
-                </pt>
-                <pt idx="174">
-                  <v>26.16500000000087</v>
-                </pt>
-                <pt idx="175">
-                  <v>26.31500000000051</v>
-                </pt>
-                <pt idx="176">
-                  <v>26.46000000000095</v>
-                </pt>
-                <pt idx="177">
-                  <v>26.61000000000058</v>
-                </pt>
-                <pt idx="178">
-                  <v>26.76100000000042</v>
-                </pt>
-                <pt idx="179">
-                  <v>26.91600000000108</v>
-                </pt>
-                <pt idx="180">
-                  <v>27.06900000000132</v>
-                </pt>
-                <pt idx="181">
-                  <v>27.21200000000135</v>
-                </pt>
-                <pt idx="182">
-                  <v>27.36300000000119</v>
-                </pt>
-                <pt idx="183">
-                  <v>27.51200000000063</v>
-                </pt>
-                <pt idx="184">
-                  <v>27.66400000000067</v>
-                </pt>
-                <pt idx="185">
-                  <v>27.81900000000132</v>
-                </pt>
-                <pt idx="186">
-                  <v>27.97000000000116</v>
-                </pt>
-                <pt idx="187">
-                  <v>28.11300000000119</v>
-                </pt>
-                <pt idx="188">
-                  <v>28.26500000000124</v>
-                </pt>
-                <pt idx="189">
-                  <v>28.41400000000067</v>
-                </pt>
-                <pt idx="190">
-                  <v>28.56500000000051</v>
-                </pt>
-                <pt idx="191">
-                  <v>28.72100000000137</v>
-                </pt>
-                <pt idx="192">
-                  <v>28.8640000000014</v>
-                </pt>
-                <pt idx="193">
-                  <v>29.01400000000103</v>
-                </pt>
-                <pt idx="194">
-                  <v>29.16400000000067</v>
-                </pt>
-                <pt idx="195">
-                  <v>29.31400000000031</v>
-                </pt>
-                <pt idx="196">
-                  <v>29.47100000000137</v>
-                </pt>
-                <pt idx="197">
-                  <v>29.62200000000121</v>
-                </pt>
-                <pt idx="198">
-                  <v>29.77100000000064</v>
-                </pt>
-                <pt idx="199">
-                  <v>29.91600000000108</v>
-                </pt>
-                <pt idx="200">
-                  <v>30.06600000000071</v>
-                </pt>
-                <pt idx="201">
-                  <v>30.21600000000035</v>
-                </pt>
-                <pt idx="202">
-                  <v>30.3700000000008</v>
-                </pt>
-                <pt idx="203">
-                  <v>30.52200000000084</v>
-                </pt>
-                <pt idx="204">
-                  <v>30.67200000000048</v>
-                </pt>
-                <pt idx="205">
-                  <v>30.81700000000092</v>
-                </pt>
-                <pt idx="206">
-                  <v>30.96700000000055</v>
-                </pt>
-                <pt idx="207">
-                  <v>31.11599999999999</v>
-                </pt>
-                <pt idx="208">
-                  <v>31.26800000000003</v>
-                </pt>
-                <pt idx="209">
-                  <v>31.4260000000013</v>
-                </pt>
-                <pt idx="210">
-                  <v>31.57800000000134</v>
-                </pt>
-                <pt idx="211">
-                  <v>31.72900000000118</v>
-                </pt>
-                <pt idx="212">
-                  <v>31.87300000000141</v>
-                </pt>
-                <pt idx="213">
-                  <v>32.02300000000105</v>
-                </pt>
-                <pt idx="214">
-                  <v>32.17300000000068</v>
-                </pt>
-                <pt idx="215">
-                  <v>32.32500000000073</v>
-                </pt>
-                <pt idx="216">
-                  <v>32.47900000000118</v>
-                </pt>
-                <pt idx="217">
-                  <v>32.62300000000141</v>
-                </pt>
-                <pt idx="218">
-                  <v>32.77300000000105</v>
-                </pt>
-                <pt idx="219">
-                  <v>32.92400000000089</v>
-                </pt>
-                <pt idx="220">
-                  <v>33.07400000000052</v>
-                </pt>
-                <pt idx="221">
-                  <v>33.22800000000097</v>
-                </pt>
-                <pt idx="222">
-                  <v>33.37900000000081</v>
-                </pt>
-                <pt idx="223">
-                  <v>33.52400000000125</v>
-                </pt>
-                <pt idx="224">
-                  <v>33.67400000000089</v>
-                </pt>
-                <pt idx="225">
-                  <v>33.82400000000052</v>
-                </pt>
-                <pt idx="226">
-                  <v>33.97900000000118</v>
-                </pt>
-                <pt idx="227">
-                  <v>34.13000000000102</v>
-                </pt>
-                <pt idx="228">
-                  <v>34.27400000000125</v>
-                </pt>
-                <pt idx="229">
-                  <v>34.4260000000013</v>
-                </pt>
-                <pt idx="230">
-                  <v>34.57500000000073</v>
-                </pt>
-                <pt idx="231">
-                  <v>34.72700000000077</v>
-                </pt>
-                <pt idx="232">
-                  <v>34.88200000000143</v>
-                </pt>
-                <pt idx="233">
-                  <v>35.02700000000004</v>
-                </pt>
-                <pt idx="234">
-                  <v>35.17699999999968</v>
-                </pt>
-                <pt idx="235">
-                  <v>35.32800000000134</v>
-                </pt>
-                <pt idx="236">
-                  <v>35.47600000000057</v>
-                </pt>
-                <pt idx="237">
-                  <v>35.63299999999981</v>
-                </pt>
-                <pt idx="238">
-                  <v>35.78300000000127</v>
-                </pt>
-                <pt idx="239">
-                  <v>35.9330000000009</v>
-                </pt>
-                <pt idx="240">
-                  <v>36.07899999999972</v>
-                </pt>
-                <pt idx="241">
-                  <v>36.23000000000138</v>
-                </pt>
-                <pt idx="242">
-                  <v>36.38000000000102</v>
-                </pt>
-                <pt idx="243">
-                  <v>36.53300000000127</v>
-                </pt>
-                <pt idx="244">
-                  <v>36.6880000000001</v>
-                </pt>
-                <pt idx="245">
-                  <v>36.83799999999974</v>
-                </pt>
-                <pt idx="246">
-                  <v>36.98300000000017</v>
-                </pt>
-                <pt idx="247">
-                  <v>37.13299999999981</v>
-                </pt>
-                <pt idx="248">
-                  <v>37.28300000000127</v>
-                </pt>
-                <pt idx="249">
-                  <v>37.4369999999999</v>
-                </pt>
-                <pt idx="250">
-                  <v>37.58899999999994</v>
-                </pt>
-                <pt idx="251">
-                  <v>37.7390000000014</v>
-                </pt>
-                <pt idx="252">
-                  <v>37.88400000000001</v>
-                </pt>
-                <pt idx="253">
-                  <v>38.03399999999965</v>
-                </pt>
-                <pt idx="254">
-                  <v>38.18500000000131</v>
-                </pt>
-                <pt idx="255">
-                  <v>38.33500000000095</v>
-                </pt>
-                <pt idx="256">
-                  <v>38.49200000000019</v>
-                </pt>
-                <pt idx="257">
-                  <v>38.64199999999983</v>
-                </pt>
-                <pt idx="258">
-                  <v>38.79100000000108</v>
-                </pt>
-                <pt idx="259">
-                  <v>38.93599999999969</v>
-                </pt>
-                <pt idx="260">
-                  <v>39.08600000000115</v>
-                </pt>
-                <pt idx="261">
-                  <v>39.23600000000079</v>
-                </pt>
-                <pt idx="262">
-                  <v>39.39199999999983</v>
-                </pt>
-                <pt idx="263">
-                  <v>39.54299999999967</v>
-                </pt>
-                <pt idx="264">
-                  <v>39.69300000000112</v>
-                </pt>
-                <pt idx="265">
-                  <v>39.83700000000135</v>
-                </pt>
-                <pt idx="266">
-                  <v>39.98700000000099</v>
-                </pt>
-                <pt idx="267">
-                  <v>40.13700000000063</v>
-                </pt>
-                <pt idx="268">
-                  <v>40.29200000000128</v>
-                </pt>
-                <pt idx="269">
-                  <v>40.44400000000132</v>
-                </pt>
-                <pt idx="270">
-                  <v>40.58700000000135</v>
-                </pt>
-                <pt idx="271">
-                  <v>40.73800000000119</v>
-                </pt>
-                <pt idx="272">
-                  <v>40.88800000000083</v>
-                </pt>
-                <pt idx="273">
-                  <v>41.03900000000067</v>
-                </pt>
-                <pt idx="274">
-                  <v>41.19400000000132</v>
-                </pt>
-                <pt idx="275">
-                  <v>41.34400000000096</v>
-                </pt>
-                <pt idx="276">
-                  <v>41.48800000000119</v>
-                </pt>
-                <pt idx="277">
-                  <v>41.63900000000103</v>
-                </pt>
-                <pt idx="278">
-                  <v>41.79000000000087</v>
-                </pt>
-                <pt idx="279">
-                  <v>41.94000000000051</v>
-                </pt>
-                <pt idx="280">
-                  <v>42.09699999999975</v>
-                </pt>
-                <pt idx="281">
-                  <v>42.24700000000121</v>
-                </pt>
-                <pt idx="282">
-                  <v>42.39700000000084</v>
-                </pt>
-                <pt idx="283">
-                  <v>42.54200000000128</v>
-                </pt>
-                <pt idx="284">
-                  <v>42.69200000000092</v>
-                </pt>
-                <pt idx="285">
-                  <v>42.84200000000055</v>
-                </pt>
-                <pt idx="286">
-                  <v>42.9950000000008</v>
-                </pt>
-                <pt idx="287">
-                  <v>43.14999999999964</v>
-                </pt>
-                <pt idx="288">
-                  <v>43.30000000000109</v>
-                </pt>
-                <pt idx="289">
-                  <v>43.44400000000132</v>
-                </pt>
-                <pt idx="290">
-                  <v>43.59500000000116</v>
-                </pt>
-                <pt idx="291">
-                  <v>43.746000000001</v>
-                </pt>
-                <pt idx="292">
-                  <v>43.89999999999964</v>
-                </pt>
-                <pt idx="293">
-                  <v>44.05199999999968</v>
-                </pt>
-                <pt idx="294">
-                  <v>44.19599999999991</v>
-                </pt>
-                <pt idx="295">
-                  <v>44.34699999999975</v>
-                </pt>
-                <pt idx="296">
-                  <v>44.4950000000008</v>
-                </pt>
-                <pt idx="297">
-                  <v>44.64800000000105</v>
-                </pt>
-                <pt idx="298">
-                  <v>44.80299999999988</v>
-                </pt>
-                <pt idx="299">
-                  <v>44.95200000000114</v>
-                </pt>
-                <pt idx="300">
-                  <v>45.09600000000137</v>
-                </pt>
-                <pt idx="301">
-                  <v>45.24800000000141</v>
-                </pt>
-                <pt idx="302">
-                  <v>45.39800000000105</v>
-                </pt>
-                <pt idx="303">
-                  <v>45.5510000000013</v>
-                </pt>
-                <pt idx="304">
-                  <v>45.70399999999972</v>
-                </pt>
-                <pt idx="305">
-                  <v>45.85300000000097</v>
-                </pt>
-                <pt idx="306">
-                  <v>45.99800000000141</v>
-                </pt>
-                <pt idx="307">
-                  <v>46.14800000000105</v>
-                </pt>
-                <pt idx="308">
-                  <v>46.29800000000068</v>
-                </pt>
-                <pt idx="309">
-                  <v>46.45200000000114</v>
-                </pt>
-                <pt idx="310">
-                  <v>46.60300000000097</v>
-                </pt>
-                <pt idx="311">
-                  <v>46.75300000000061</v>
-                </pt>
-                <pt idx="312">
-                  <v>46.89800000000105</v>
-                </pt>
-                <pt idx="313">
-                  <v>47.05000000000109</v>
-                </pt>
-                <pt idx="314">
-                  <v>47.19900000000052</v>
-                </pt>
-                <pt idx="315">
-                  <v>47.35100000000057</v>
-                </pt>
-                <pt idx="316">
-                  <v>47.50600000000122</v>
-                </pt>
-                <pt idx="317">
-                  <v>47.65800000000127</v>
-                </pt>
-                <pt idx="318">
-                  <v>47.80199999999968</v>
-                </pt>
-                <pt idx="319">
-                  <v>47.95100000000093</v>
-                </pt>
-                <pt idx="320">
-                  <v>48.10200000000077</v>
-                </pt>
-                <pt idx="321">
-                  <v>48.25200000000041</v>
-                </pt>
-                <pt idx="322">
-                  <v>48.40800000000127</v>
-                </pt>
-                <pt idx="323">
-                  <v>48.5580000000009</v>
-                </pt>
-                <pt idx="324">
-                  <v>48.70300000000134</v>
-                </pt>
-                <pt idx="325">
-                  <v>48.85400000000118</v>
-                </pt>
-                <pt idx="326">
-                  <v>49.00200000000041</v>
-                </pt>
-                <pt idx="327">
-                  <v>49.15400000000045</v>
-                </pt>
-                <pt idx="328">
-                  <v>49.30900000000111</v>
-                </pt>
-                <pt idx="329">
-                  <v>49.46000000000095</v>
-                </pt>
-                <pt idx="330">
-                  <v>49.60400000000118</v>
-                </pt>
-                <pt idx="331">
-                  <v>49.75500000000102</v>
-                </pt>
-                <pt idx="332">
-                  <v>49.90400000000045</v>
-                </pt>
-                <pt idx="333">
-                  <v>50.05500000000029</v>
-                </pt>
-                <pt idx="334">
-                  <v>50.21000000000095</v>
-                </pt>
-                <pt idx="335">
-                  <v>50.36100000000079</v>
-                </pt>
-                <pt idx="336">
-                  <v>50.50500000000102</v>
-                </pt>
-                <pt idx="337">
-                  <v>50.65500000000065</v>
-                </pt>
-                <pt idx="338">
-                  <v>50.80500000000029</v>
-                </pt>
-                <pt idx="339">
-                  <v>50.95700000000033</v>
-                </pt>
-                <pt idx="340">
-                  <v>51.11100000000079</v>
-                </pt>
-                <pt idx="341">
-                  <v>51.26100000000042</v>
-                </pt>
-                <pt idx="342">
-                  <v>51.40500000000065</v>
-                </pt>
-                <pt idx="343">
-                  <v>51.55600000000049</v>
-                </pt>
-                <pt idx="344">
-                  <v>51.70600000000013</v>
-                </pt>
-                <pt idx="345">
-                  <v>51.86300000000119</v>
-                </pt>
-                <pt idx="346">
-                  <v>52.01500000000124</v>
-                </pt>
-                <pt idx="347">
-                  <v>52.15800000000127</v>
-                </pt>
-                <pt idx="348">
-                  <v>52.30900000000111</v>
-                </pt>
-                <pt idx="349">
-                  <v>52.45900000000074</v>
-                </pt>
-                <pt idx="350">
-                  <v>52.61000000000058</v>
-                </pt>
-                <pt idx="351">
-                  <v>52.76500000000124</v>
-                </pt>
-                <pt idx="352">
-                  <v>52.91600000000108</v>
-                </pt>
-                <pt idx="353">
-                  <v>53.06099999999969</v>
-                </pt>
-                <pt idx="354">
-                  <v>53.21200000000135</v>
-                </pt>
-                <pt idx="355">
-                  <v>53.36200000000099</v>
-                </pt>
-                <pt idx="356">
-                  <v>53.51300000000083</v>
-                </pt>
-                <pt idx="357">
-                  <v>53.66799999999967</v>
-                </pt>
-                <pt idx="358">
-                  <v>53.81800000000112</v>
-                </pt>
-                <pt idx="359">
-                  <v>53.96299999999974</v>
-                </pt>
-                <pt idx="360">
-                  <v>54.11499999999978</v>
-                </pt>
-                <pt idx="361">
-                  <v>54.26500000000124</v>
-                </pt>
-                <pt idx="362">
-                  <v>54.42000000000007</v>
-                </pt>
-                <pt idx="363">
-                  <v>54.57200000000012</v>
-                </pt>
-                <pt idx="364">
-                  <v>54.72100000000137</v>
-                </pt>
-                <pt idx="365">
-                  <v>54.86599999999999</v>
-                </pt>
-                <pt idx="366">
-                  <v>55.01600000000144</v>
-                </pt>
-                <pt idx="367">
-                  <v>55.16600000000108</v>
-                </pt>
-                <pt idx="368">
-                  <v>55.31900000000132</v>
-                </pt>
-                <pt idx="369">
-                  <v>55.47199999999975</v>
-                </pt>
-                <pt idx="370">
-                  <v>55.621000000001</v>
-                </pt>
-                <pt idx="371">
-                  <v>55.76600000000144</v>
-                </pt>
-                <pt idx="372">
-                  <v>55.91600000000108</v>
-                </pt>
-                <pt idx="373">
-                  <v>56.06600000000071</v>
-                </pt>
-                <pt idx="374">
-                  <v>56.21900000000096</v>
-                </pt>
-                <pt idx="375">
-                  <v>56.37300000000141</v>
-                </pt>
-                <pt idx="376">
-                  <v>56.52400000000125</v>
-                </pt>
-                <pt idx="377">
-                  <v>56.66899999999987</v>
-                </pt>
-                <pt idx="378">
-                  <v>56.81900000000132</v>
-                </pt>
-                <pt idx="379">
-                  <v>56.97000000000116</v>
-                </pt>
-                <pt idx="380">
-                  <v>57.121000000001</v>
-                </pt>
-                <pt idx="381">
-                  <v>57.27599999999984</v>
-                </pt>
-                <pt idx="382">
-                  <v>57.42699999999968</v>
-                </pt>
-                <pt idx="383">
-                  <v>57.57200000000012</v>
-                </pt>
-                <pt idx="384">
-                  <v>57.72500000000036</v>
-                </pt>
-                <pt idx="385">
-                  <v>57.87300000000141</v>
-                </pt>
-                <pt idx="386">
-                  <v>58.02499999999964</v>
-                </pt>
-                <pt idx="387">
-                  <v>58.17900000000009</v>
-                </pt>
-                <pt idx="388">
-                  <v>58.32500000000073</v>
-                </pt>
-                <pt idx="389">
-                  <v>58.47600000000057</v>
-                </pt>
-                <pt idx="390">
-                  <v>58.6260000000002</v>
-                </pt>
-                <pt idx="391">
-                  <v>58.77599999999984</v>
-                </pt>
-                <pt idx="392">
-                  <v>58.9320000000007</v>
-                </pt>
-                <pt idx="393">
-                  <v>59.08300000000054</v>
-                </pt>
-                <pt idx="394">
-                  <v>59.22700000000077</v>
-                </pt>
-                <pt idx="395">
-                  <v>59.37800000000061</v>
-                </pt>
-                <pt idx="396">
-                  <v>59.52800000000025</v>
-                </pt>
-                <pt idx="397">
-                  <v>59.67900000000009</v>
-                </pt>
-                <pt idx="398">
-                  <v>59.83400000000074</v>
-                </pt>
-                <pt idx="399">
-                  <v>59.98400000000038</v>
-                </pt>
-                <pt idx="400">
-                  <v>60.12800000000061</v>
-                </pt>
-                <pt idx="401">
-                  <v>60.27900000000045</v>
-                </pt>
-                <pt idx="402">
-                  <v>60.43000000000029</v>
-                </pt>
-                <pt idx="403">
-                  <v>60.57999999999993</v>
-                </pt>
-                <pt idx="404">
-                  <v>60.73700000000099</v>
-                </pt>
-                <pt idx="405">
-                  <v>60.88600000000042</v>
-                </pt>
-                <pt idx="406">
-                  <v>61.03600000000006</v>
-                </pt>
-                <pt idx="407">
-                  <v>61.18100000000049</v>
-                </pt>
-                <pt idx="408">
-                  <v>61.32999999999993</v>
-                </pt>
-                <pt idx="409">
-                  <v>61.48099999999977</v>
-                </pt>
-                <pt idx="410">
-                  <v>61.63700000000063</v>
-                </pt>
-                <pt idx="411">
-                  <v>61.78900000000067</v>
-                </pt>
-                <pt idx="412">
-                  <v>61.9330000000009</v>
-                </pt>
-                <pt idx="413">
-                  <v>62.08300000000054</v>
-                </pt>
-                <pt idx="414">
-                  <v>62.23300000000017</v>
-                </pt>
-                <pt idx="415">
-                  <v>62.38200000000143</v>
-                </pt>
-                <pt idx="416">
-                  <v>62.54200000000128</v>
-                </pt>
-                <pt idx="417">
-                  <v>62.69400000000132</v>
-                </pt>
-                <pt idx="418">
-                  <v>62.83799999999974</v>
-                </pt>
-                <pt idx="419">
-                  <v>62.9890000000014</v>
-                </pt>
-                <pt idx="420">
-                  <v>63.13800000000083</v>
-                </pt>
-                <pt idx="421">
-                  <v>63.28900000000067</v>
-                </pt>
-                <pt idx="422">
-                  <v>63.44400000000132</v>
-                </pt>
-                <pt idx="423">
-                  <v>63.59500000000116</v>
-                </pt>
-                <pt idx="424">
-                  <v>63.746000000001</v>
-                </pt>
-                <pt idx="425">
-                  <v>63.89000000000124</v>
-                </pt>
-                <pt idx="426">
-                  <v>64.04000000000087</v>
-                </pt>
-                <pt idx="427">
-                  <v>64.19100000000071</v>
-                </pt>
-                <pt idx="428">
-                  <v>64.34500000000116</v>
-                </pt>
-                <pt idx="429">
-                  <v>64.49700000000121</v>
-                </pt>
-                <pt idx="430">
-                  <v>64.64000000000124</v>
-                </pt>
-                <pt idx="431">
-                  <v>64.79200000000128</v>
-                </pt>
-                <pt idx="432">
-                  <v>64.94200000000092</v>
-                </pt>
-                <pt idx="433">
-                  <v>65.09300000000076</v>
-                </pt>
-                <pt idx="434">
-                  <v>65.2489999999998</v>
-                </pt>
-                <pt idx="435">
-                  <v>65.39700000000084</v>
-                </pt>
-                <pt idx="436">
-                  <v>65.54200000000128</v>
-                </pt>
-                <pt idx="437">
-                  <v>65.69499999999971</v>
-                </pt>
-                <pt idx="438">
-                  <v>65.84400000000096</v>
-                </pt>
-                <pt idx="439">
-                  <v>65.99800000000141</v>
-                </pt>
-                <pt idx="440">
-                  <v>66.14999999999964</v>
-                </pt>
-                <pt idx="441">
-                  <v>66.30000000000109</v>
-                </pt>
-                <pt idx="442">
-                  <v>66.44499999999971</v>
-                </pt>
-                <pt idx="443">
-                  <v>66.59699999999975</v>
-                </pt>
-                <pt idx="444">
-                  <v>66.74700000000121</v>
-                </pt>
-                <pt idx="445">
-                  <v>66.89900000000125</v>
-                </pt>
-                <pt idx="446">
-                  <v>67.05299999999988</v>
-                </pt>
-                <pt idx="447">
-                  <v>67.19800000000032</v>
-                </pt>
-                <pt idx="448">
-                  <v>67.34799999999996</v>
-                </pt>
-                <pt idx="449">
-                  <v>67.5</v>
-                </pt>
-                <pt idx="450">
-                  <v>67.64999999999964</v>
-                </pt>
-                <pt idx="451">
-                  <v>67.80400000000009</v>
-                </pt>
-                <pt idx="452">
-                  <v>67.95700000000033</v>
-                </pt>
-                <pt idx="453">
-                  <v>68.10599999999977</v>
-                </pt>
-                <pt idx="454">
-                  <v>68.2510000000002</v>
-                </pt>
-                <pt idx="455">
-                  <v>68.40099999999984</v>
-                </pt>
-                <pt idx="456">
-                  <v>68.5510000000013</v>
-                </pt>
-                <pt idx="457">
-                  <v>68.70399999999972</v>
-                </pt>
-                <pt idx="458">
-                  <v>68.85599999999977</v>
-                </pt>
-                <pt idx="459">
-                  <v>69.00700000000143</v>
-                </pt>
-                <pt idx="460">
-                  <v>69.15099999999984</v>
-                </pt>
-                <pt idx="461">
-                  <v>69.30000000000109</v>
-                </pt>
-                <pt idx="462">
-                  <v>69.45100000000093</v>
-                </pt>
-                <pt idx="463">
-                  <v>69.60300000000097</v>
-                </pt>
-                <pt idx="464">
-                  <v>69.75600000000122</v>
-                </pt>
-                <pt idx="465">
-                  <v>69.90200000000004</v>
-                </pt>
-                <pt idx="466">
-                  <v>70.05199999999968</v>
-                </pt>
-                <pt idx="467">
-                  <v>70.20300000000134</v>
-                </pt>
-                <pt idx="468">
-                  <v>70.35200000000077</v>
-                </pt>
-                <pt idx="469">
-                  <v>70.50799999999981</v>
-                </pt>
-                <pt idx="470">
-                  <v>70.65899999999965</v>
-                </pt>
-                <pt idx="471">
-                  <v>70.8080000000009</v>
-                </pt>
-                <pt idx="472">
-                  <v>70.95300000000134</v>
-                </pt>
-                <pt idx="473">
-                  <v>71.10300000000097</v>
-                </pt>
-                <pt idx="474">
-                  <v>71.25300000000061</v>
-                </pt>
-                <pt idx="475">
-                  <v>71.40700000000106</v>
-                </pt>
-                <pt idx="476">
-                  <v>71.5580000000009</v>
-                </pt>
-                <pt idx="477">
-                  <v>71.70200000000114</v>
-                </pt>
-                <pt idx="478">
-                  <v>71.85300000000097</v>
-                </pt>
-                <pt idx="479">
-                  <v>72.00400000000081</v>
-                </pt>
-                <pt idx="480">
-                  <v>72.15400000000045</v>
-                </pt>
-                <pt idx="481">
-                  <v>72.30900000000111</v>
-                </pt>
-                <pt idx="482">
-                  <v>72.46000000000095</v>
-                </pt>
-                <pt idx="483">
-                  <v>72.60500000000138</v>
-                </pt>
-                <pt idx="484">
-                  <v>72.75500000000102</v>
-                </pt>
-                <pt idx="485">
-                  <v>72.90500000000065</v>
-                </pt>
-                <pt idx="486">
-                  <v>73.06000000000131</v>
-                </pt>
-                <pt idx="487">
-                  <v>73.21100000000115</v>
-                </pt>
-                <pt idx="488">
-                  <v>73.36100000000079</v>
-                </pt>
-                <pt idx="489">
-                  <v>73.50500000000102</v>
-                </pt>
-                <pt idx="490">
-                  <v>73.65700000000106</v>
-                </pt>
-                <pt idx="491">
-                  <v>73.80600000000049</v>
-                </pt>
-                <pt idx="492">
-                  <v>73.95900000000074</v>
-                </pt>
-                <pt idx="493">
-                  <v>74.1140000000014</v>
-                </pt>
-                <pt idx="494">
-                  <v>74.26600000000144</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>full!$BO$2:$BO$496</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="495"/>
@@ -37623,38 +34607,6 @@
             </numRef>
           </val>
         </ser>
-        <ser>
-          <idx val="21"/>
-          <order val="21"/>
-          <tx>
-            <strRef>
-              <f>'time to temp'!A23</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'time to temp'!$B$23:$H$23</f>
-            </numRef>
-          </val>
-        </ser>
         <axId val="10"/>
         <axId val="100"/>
       </lineChart>
@@ -38038,7 +34990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO496"/>
+  <dimension ref="A1:BL496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38362,21 +35314,6 @@
           <t>temp (c) 20</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>file name 21</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>normalized time (sec) 21</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>temp (c) 21</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -38613,17 +35550,6 @@
       <c r="BL2" t="n">
         <v>26.14</v>
       </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>PCR #46 202301053.txt</t>
-        </is>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>26.14</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -38755,12 +35681,6 @@
       <c r="BL3" t="n">
         <v>27.9</v>
       </c>
-      <c r="BN3" t="n">
-        <v>0.1490000000012515</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>27.9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -38892,12 +35812,6 @@
       <c r="BL4" t="n">
         <v>30.51</v>
       </c>
-      <c r="BN4" t="n">
-        <v>0.305000000000291</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>30.51</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -39029,12 +35943,6 @@
       <c r="BL5" t="n">
         <v>32.78</v>
       </c>
-      <c r="BN5" t="n">
-        <v>0.4500000000007276</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>32.78</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -39166,12 +36074,6 @@
       <c r="BL6" t="n">
         <v>37.03</v>
       </c>
-      <c r="BN6" t="n">
-        <v>0.6000000000003638</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>37.03</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -39303,12 +36205,6 @@
       <c r="BL7" t="n">
         <v>41.83</v>
       </c>
-      <c r="BN7" t="n">
-        <v>0.7510000000002037</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>41.83</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -39440,12 +36336,6 @@
       <c r="BL8" t="n">
         <v>47.05</v>
       </c>
-      <c r="BN8" t="n">
-        <v>0.9009999999998399</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>47.05</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -39577,12 +36467,6 @@
       <c r="BL9" t="n">
         <v>52.19</v>
       </c>
-      <c r="BN9" t="n">
-        <v>1.051000000001295</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>52.19</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -39714,12 +36598,6 @@
       <c r="BL10" t="n">
         <v>57.14</v>
       </c>
-      <c r="BN10" t="n">
-        <v>1.207000000000335</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>57.14</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -39851,12 +36729,6 @@
       <c r="BL11" t="n">
         <v>60.45</v>
       </c>
-      <c r="BN11" t="n">
-        <v>1.352000000000771</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>60.45</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -39988,12 +36860,6 @@
       <c r="BL12" t="n">
         <v>65.23</v>
       </c>
-      <c r="BN12" t="n">
-        <v>1.503000000000611</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>65.23</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -40125,12 +36991,6 @@
       <c r="BL13" t="n">
         <v>69.29000000000001</v>
       </c>
-      <c r="BN13" t="n">
-        <v>1.659999999999854</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>69.29000000000001</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -40262,12 +37122,6 @@
       <c r="BL14" t="n">
         <v>73</v>
       </c>
-      <c r="BN14" t="n">
-        <v>1.81000000000131</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -40399,12 +37253,6 @@
       <c r="BL15" t="n">
         <v>76.36</v>
       </c>
-      <c r="BN15" t="n">
-        <v>1.965000000000146</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>76.36</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -40536,12 +37384,6 @@
       <c r="BL16" t="n">
         <v>78.42</v>
       </c>
-      <c r="BN16" t="n">
-        <v>2.117000000000189</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>78.42</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -40673,12 +37515,6 @@
       <c r="BL17" t="n">
         <v>81.27</v>
       </c>
-      <c r="BN17" t="n">
-        <v>2.266999999999825</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>81.27</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -40810,12 +37646,6 @@
       <c r="BL18" t="n">
         <v>83.78</v>
       </c>
-      <c r="BN18" t="n">
-        <v>2.412000000000262</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>83.78</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -40947,12 +37777,6 @@
       <c r="BL19" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="BN19" t="n">
-        <v>2.565000000000509</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>85.90000000000001</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -41084,12 +37908,6 @@
       <c r="BL20" t="n">
         <v>87.73</v>
       </c>
-      <c r="BN20" t="n">
-        <v>2.699000000000524</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>87.73</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -41221,12 +38039,6 @@
       <c r="BL21" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="BN21" t="n">
-        <v>2.856999999999971</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>89.40000000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -41358,12 +38170,6 @@
       <c r="BL22" t="n">
         <v>90.38</v>
       </c>
-      <c r="BN22" t="n">
-        <v>3.002000000000407</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>90.38</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -41495,12 +38301,6 @@
       <c r="BL23" t="n">
         <v>91.72</v>
       </c>
-      <c r="BN23" t="n">
-        <v>3.15099999999984</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>91.72</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -41632,12 +38432,6 @@
       <c r="BL24" t="n">
         <v>92.88</v>
       </c>
-      <c r="BN24" t="n">
-        <v>3.30199999999968</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>92.88</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -41769,12 +38563,6 @@
       <c r="BL25" t="n">
         <v>93.89</v>
       </c>
-      <c r="BN25" t="n">
-        <v>3.451000000000931</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>93.89</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -41906,12 +38694,6 @@
       <c r="BL26" t="n">
         <v>94.75</v>
       </c>
-      <c r="BN26" t="n">
-        <v>3.602000000000771</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>94.75</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -42043,12 +38825,6 @@
       <c r="BL27" t="n">
         <v>95.53</v>
       </c>
-      <c r="BN27" t="n">
-        <v>3.757000000001426</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>95.53</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -42180,12 +38956,6 @@
       <c r="BL28" t="n">
         <v>96</v>
       </c>
-      <c r="BN28" t="n">
-        <v>3.903000000000247</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -42317,12 +39087,6 @@
       <c r="BL29" t="n">
         <v>96.61</v>
       </c>
-      <c r="BN29" t="n">
-        <v>4.05199999999968</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>96.61</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -42454,12 +39218,6 @@
       <c r="BL30" t="n">
         <v>97.16</v>
       </c>
-      <c r="BN30" t="n">
-        <v>4.203000000001339</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>97.16</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -42591,12 +39349,6 @@
       <c r="BL31" t="n">
         <v>97.62</v>
       </c>
-      <c r="BN31" t="n">
-        <v>4.352000000000771</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>97.62</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -42728,12 +39480,6 @@
       <c r="BL32" t="n">
         <v>98.01000000000001</v>
       </c>
-      <c r="BN32" t="n">
-        <v>4.504000000000815</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>98.01000000000001</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -42865,12 +39611,6 @@
       <c r="BL33" t="n">
         <v>98.25</v>
       </c>
-      <c r="BN33" t="n">
-        <v>4.654000000000451</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>98.25</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -43002,12 +39742,6 @@
       <c r="BL34" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="BN34" t="n">
-        <v>4.802999999999884</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>98.59999999999999</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -43139,12 +39873,6 @@
       <c r="BL35" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="BN35" t="n">
-        <v>4.953999999999724</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>98.90000000000001</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -43276,12 +40004,6 @@
       <c r="BL36" t="n">
         <v>99.18000000000001</v>
       </c>
-      <c r="BN36" t="n">
-        <v>5.104000000001179</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>99.18000000000001</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -43413,12 +40135,6 @@
       <c r="BL37" t="n">
         <v>99.41</v>
       </c>
-      <c r="BN37" t="n">
-        <v>5.253000000000611</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>99.41</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -43550,12 +40266,6 @@
       <c r="BL38" t="n">
         <v>99.63</v>
       </c>
-      <c r="BN38" t="n">
-        <v>5.412000000000262</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>99.63</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -43687,12 +40397,6 @@
       <c r="BL39" t="n">
         <v>99.77</v>
       </c>
-      <c r="BN39" t="n">
-        <v>5.556000000000495</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>99.77</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -43824,12 +40528,6 @@
       <c r="BL40" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="BN40" t="n">
-        <v>5.706000000000131</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>99.93000000000001</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -43961,12 +40659,6 @@
       <c r="BL41" t="n">
         <v>100.1</v>
       </c>
-      <c r="BN41" t="n">
-        <v>5.864000000001397</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>100.1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -44098,12 +40790,6 @@
       <c r="BL42" t="n">
         <v>100.24</v>
       </c>
-      <c r="BN42" t="n">
-        <v>6.015000000001237</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>100.24</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -44235,12 +40921,6 @@
       <c r="BL43" t="n">
         <v>100.35</v>
       </c>
-      <c r="BN43" t="n">
-        <v>6.165000000000873</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>100.35</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -44372,12 +41052,6 @@
       <c r="BL44" t="n">
         <v>100.43</v>
       </c>
-      <c r="BN44" t="n">
-        <v>6.319999999999709</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>100.43</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -44509,12 +41183,6 @@
       <c r="BL45" t="n">
         <v>100.56</v>
       </c>
-      <c r="BN45" t="n">
-        <v>6.465000000000146</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>100.56</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -44646,12 +41314,6 @@
       <c r="BL46" t="n">
         <v>100.67</v>
       </c>
-      <c r="BN46" t="n">
-        <v>6.615999999999985</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>100.67</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -44783,12 +41445,6 @@
       <c r="BL47" t="n">
         <v>100.77</v>
       </c>
-      <c r="BN47" t="n">
-        <v>6.765000000001237</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>100.77</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -44920,12 +41576,6 @@
       <c r="BL48" t="n">
         <v>100.84</v>
       </c>
-      <c r="BN48" t="n">
-        <v>6.916000000001077</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>100.84</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -45057,12 +41707,6 @@
       <c r="BL49" t="n">
         <v>100.92</v>
       </c>
-      <c r="BN49" t="n">
-        <v>7.070999999999913</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>100.92</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -45194,12 +41838,6 @@
       <c r="BL50" t="n">
         <v>100.97</v>
       </c>
-      <c r="BN50" t="n">
-        <v>7.221999999999753</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>100.97</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -45331,12 +41969,6 @@
       <c r="BL51" t="n">
         <v>101.05</v>
       </c>
-      <c r="BN51" t="n">
-        <v>7.373000000001412</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>101.05</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -45468,12 +42100,6 @@
       <c r="BL52" t="n">
         <v>101.12</v>
       </c>
-      <c r="BN52" t="n">
-        <v>7.516999999999825</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>101.12</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -45605,12 +42231,6 @@
       <c r="BL53" t="n">
         <v>101.17</v>
       </c>
-      <c r="BN53" t="n">
-        <v>7.667000000001281</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>101.17</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -45742,12 +42362,6 @@
       <c r="BL54" t="n">
         <v>101.22</v>
       </c>
-      <c r="BN54" t="n">
-        <v>7.816000000000713</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>101.22</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -45879,12 +42493,6 @@
       <c r="BL55" t="n">
         <v>101.28</v>
       </c>
-      <c r="BN55" t="n">
-        <v>7.970000000001164</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>101.28</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -46016,12 +42624,6 @@
       <c r="BL56" t="n">
         <v>101.33</v>
       </c>
-      <c r="BN56" t="n">
-        <v>8.125</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>101.33</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -46153,12 +42755,6 @@
       <c r="BL57" t="n">
         <v>101.39</v>
       </c>
-      <c r="BN57" t="n">
-        <v>8.268000000000029</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>101.39</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -46290,12 +42886,6 @@
       <c r="BL58" t="n">
         <v>101.43</v>
       </c>
-      <c r="BN58" t="n">
-        <v>8.416000000001077</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>101.43</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -46427,12 +43017,6 @@
       <c r="BL59" t="n">
         <v>101.47</v>
       </c>
-      <c r="BN59" t="n">
-        <v>8.569999999999709</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>101.47</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -46564,12 +43148,6 @@
       <c r="BL60" t="n">
         <v>101.51</v>
       </c>
-      <c r="BN60" t="n">
-        <v>8.720000000001164</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>101.51</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -46701,12 +43279,6 @@
       <c r="BL61" t="n">
         <v>101.56</v>
       </c>
-      <c r="BN61" t="n">
-        <v>8.871000000001004</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>101.56</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -46838,12 +43410,6 @@
       <c r="BL62" t="n">
         <v>101.58</v>
       </c>
-      <c r="BN62" t="n">
-        <v>9.027000000000044</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>101.58</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -46975,12 +43541,6 @@
       <c r="BL63" t="n">
         <v>101.62</v>
       </c>
-      <c r="BN63" t="n">
-        <v>9.17200000000048</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>101.62</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -47112,12 +43672,6 @@
       <c r="BL64" t="n">
         <v>101.65</v>
       </c>
-      <c r="BN64" t="n">
-        <v>9.320999999999913</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>101.65</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -47249,12 +43803,6 @@
       <c r="BL65" t="n">
         <v>101.69</v>
       </c>
-      <c r="BN65" t="n">
-        <v>9.471999999999753</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>101.69</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -47386,12 +43934,6 @@
       <c r="BL66" t="n">
         <v>101.73</v>
       </c>
-      <c r="BN66" t="n">
-        <v>9.622000000001208</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>101.73</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -47523,12 +44065,6 @@
       <c r="BL67" t="n">
         <v>101.76</v>
       </c>
-      <c r="BN67" t="n">
-        <v>9.777000000000044</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>101.76</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -47660,12 +44196,6 @@
       <c r="BL68" t="n">
         <v>101.8</v>
       </c>
-      <c r="BN68" t="n">
-        <v>9.927999999999884</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>101.8</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -47797,12 +44327,6 @@
       <c r="BL69" t="n">
         <v>101.82</v>
       </c>
-      <c r="BN69" t="n">
-        <v>10.07700000000114</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>101.82</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -47934,12 +44458,6 @@
       <c r="BL70" t="n">
         <v>101.84</v>
       </c>
-      <c r="BN70" t="n">
-        <v>10.22100000000137</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>101.84</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -48071,12 +44589,6 @@
       <c r="BL71" t="n">
         <v>101.87</v>
       </c>
-      <c r="BN71" t="n">
-        <v>10.3739999999998</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>101.87</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -48208,12 +44720,6 @@
       <c r="BL72" t="n">
         <v>101.9</v>
       </c>
-      <c r="BN72" t="n">
-        <v>10.52300000000105</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>101.9</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -48345,12 +44851,6 @@
       <c r="BL73" t="n">
         <v>101.92</v>
       </c>
-      <c r="BN73" t="n">
-        <v>10.67799999999988</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>101.92</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -48482,12 +44982,6 @@
       <c r="BL74" t="n">
         <v>101.95</v>
       </c>
-      <c r="BN74" t="n">
-        <v>10.82999999999993</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>101.95</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -48619,12 +45113,6 @@
       <c r="BL75" t="n">
         <v>101.97</v>
       </c>
-      <c r="BN75" t="n">
-        <v>10.98000000000138</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>101.97</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -48756,12 +45244,6 @@
       <c r="BL76" t="n">
         <v>101.99</v>
       </c>
-      <c r="BN76" t="n">
-        <v>11.125</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>101.99</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -48893,12 +45375,6 @@
       <c r="BL77" t="n">
         <v>102.01</v>
       </c>
-      <c r="BN77" t="n">
-        <v>11.27599999999984</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>102.01</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -49030,12 +45506,6 @@
       <c r="BL78" t="n">
         <v>102.04</v>
       </c>
-      <c r="BN78" t="n">
-        <v>11.42500000000109</v>
-      </c>
-      <c r="BO78" t="n">
-        <v>102.04</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -49167,12 +45637,6 @@
       <c r="BL79" t="n">
         <v>102.07</v>
       </c>
-      <c r="BN79" t="n">
-        <v>11.57700000000114</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>102.07</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -49304,12 +45768,6 @@
       <c r="BL80" t="n">
         <v>102.08</v>
       </c>
-      <c r="BN80" t="n">
-        <v>11.73400000000038</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>102.08</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -49441,12 +45899,6 @@
       <c r="BL81" t="n">
         <v>102.1</v>
       </c>
-      <c r="BN81" t="n">
-        <v>11.88500000000022</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>102.1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -49578,12 +46030,6 @@
       <c r="BL82" t="n">
         <v>102.12</v>
       </c>
-      <c r="BN82" t="n">
-        <v>12.02900000000045</v>
-      </c>
-      <c r="BO82" t="n">
-        <v>102.12</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -49715,12 +46161,6 @@
       <c r="BL83" t="n">
         <v>102.13</v>
       </c>
-      <c r="BN83" t="n">
-        <v>12.17900000000009</v>
-      </c>
-      <c r="BO83" t="n">
-        <v>102.13</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -49852,12 +46292,6 @@
       <c r="BL84" t="n">
         <v>102.16</v>
       </c>
-      <c r="BN84" t="n">
-        <v>12.32999999999993</v>
-      </c>
-      <c r="BO84" t="n">
-        <v>102.16</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -49989,12 +46423,6 @@
       <c r="BL85" t="n">
         <v>102.18</v>
       </c>
-      <c r="BN85" t="n">
-        <v>12.48000000000138</v>
-      </c>
-      <c r="BO85" t="n">
-        <v>102.18</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -50126,12 +46554,6 @@
       <c r="BL86" t="n">
         <v>102.2</v>
       </c>
-      <c r="BN86" t="n">
-        <v>12.63600000000042</v>
-      </c>
-      <c r="BO86" t="n">
-        <v>102.2</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -50263,12 +46685,6 @@
       <c r="BL87" t="n">
         <v>102.21</v>
       </c>
-      <c r="BN87" t="n">
-        <v>12.78600000000006</v>
-      </c>
-      <c r="BO87" t="n">
-        <v>102.21</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -50400,12 +46816,6 @@
       <c r="BL88" t="n">
         <v>102.21</v>
       </c>
-      <c r="BN88" t="n">
-        <v>12.93500000000131</v>
-      </c>
-      <c r="BO88" t="n">
-        <v>102.21</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -50537,12 +46947,6 @@
       <c r="BL89" t="n">
         <v>102.25</v>
       </c>
-      <c r="BN89" t="n">
-        <v>13.07999999999993</v>
-      </c>
-      <c r="BO89" t="n">
-        <v>102.25</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -50674,12 +47078,6 @@
       <c r="BL90" t="n">
         <v>102.27</v>
       </c>
-      <c r="BN90" t="n">
-        <v>13.22900000000118</v>
-      </c>
-      <c r="BO90" t="n">
-        <v>102.27</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -50811,12 +47209,6 @@
       <c r="BL91" t="n">
         <v>102.28</v>
       </c>
-      <c r="BN91" t="n">
-        <v>13.38000000000102</v>
-      </c>
-      <c r="BO91" t="n">
-        <v>102.28</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -50942,12 +47334,6 @@
       <c r="BL92" t="n">
         <v>102.31</v>
       </c>
-      <c r="BN92" t="n">
-        <v>13.53399999999965</v>
-      </c>
-      <c r="BO92" t="n">
-        <v>102.31</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -51073,12 +47459,6 @@
       <c r="BL93" t="n">
         <v>102.32</v>
       </c>
-      <c r="BN93" t="n">
-        <v>13.68599999999969</v>
-      </c>
-      <c r="BO93" t="n">
-        <v>102.32</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -51204,12 +47584,6 @@
       <c r="BL94" t="n">
         <v>102.33</v>
       </c>
-      <c r="BN94" t="n">
-        <v>13.83600000000115</v>
-      </c>
-      <c r="BO94" t="n">
-        <v>102.33</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -51335,12 +47709,6 @@
       <c r="BL95" t="n">
         <v>102.36</v>
       </c>
-      <c r="BN95" t="n">
-        <v>13.98099999999977</v>
-      </c>
-      <c r="BO95" t="n">
-        <v>102.36</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -51466,12 +47834,6 @@
       <c r="BL96" t="n">
         <v>102.38</v>
       </c>
-      <c r="BN96" t="n">
-        <v>14.13200000000143</v>
-      </c>
-      <c r="BO96" t="n">
-        <v>102.38</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -51597,12 +47959,6 @@
       <c r="BL97" t="n">
         <v>102.39</v>
       </c>
-      <c r="BN97" t="n">
-        <v>14.28200000000106</v>
-      </c>
-      <c r="BO97" t="n">
-        <v>102.39</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -51728,12 +48084,6 @@
       <c r="BL98" t="n">
         <v>102.4</v>
       </c>
-      <c r="BN98" t="n">
-        <v>14.4330000000009</v>
-      </c>
-      <c r="BO98" t="n">
-        <v>102.4</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -51859,12 +48209,6 @@
       <c r="BL99" t="n">
         <v>102.41</v>
       </c>
-      <c r="BN99" t="n">
-        <v>14.58799999999974</v>
-      </c>
-      <c r="BO99" t="n">
-        <v>102.41</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -51990,12 +48334,6 @@
       <c r="BL100" t="n">
         <v>102.41</v>
       </c>
-      <c r="BN100" t="n">
-        <v>14.73800000000119</v>
-      </c>
-      <c r="BO100" t="n">
-        <v>102.41</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -52121,12 +48459,6 @@
       <c r="BL101" t="n">
         <v>102.45</v>
       </c>
-      <c r="BN101" t="n">
-        <v>14.88200000000143</v>
-      </c>
-      <c r="BO101" t="n">
-        <v>102.45</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -52252,12 +48584,6 @@
       <c r="BL102" t="n">
         <v>102.49</v>
       </c>
-      <c r="BN102" t="n">
-        <v>15.03300000000127</v>
-      </c>
-      <c r="BO102" t="n">
-        <v>102.49</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -52383,12 +48709,6 @@
       <c r="BL103" t="n">
         <v>102.48</v>
       </c>
-      <c r="BN103" t="n">
-        <v>15.18400000000111</v>
-      </c>
-      <c r="BO103" t="n">
-        <v>102.48</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -52514,12 +48834,6 @@
       <c r="BL104" t="n">
         <v>102.5</v>
       </c>
-      <c r="BN104" t="n">
-        <v>15.33300000000054</v>
-      </c>
-      <c r="BO104" t="n">
-        <v>102.5</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -52645,12 +48959,6 @@
       <c r="BL105" t="n">
         <v>102.52</v>
       </c>
-      <c r="BN105" t="n">
-        <v>15.4890000000014</v>
-      </c>
-      <c r="BO105" t="n">
-        <v>102.52</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -52776,12 +49084,6 @@
       <c r="BL106" t="n">
         <v>102.53</v>
       </c>
-      <c r="BN106" t="n">
-        <v>15.64100000000144</v>
-      </c>
-      <c r="BO106" t="n">
-        <v>102.53</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -52907,12 +49209,6 @@
       <c r="BL107" t="n">
         <v>102.53</v>
       </c>
-      <c r="BN107" t="n">
-        <v>15.78499999999985</v>
-      </c>
-      <c r="BO107" t="n">
-        <v>102.53</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -53038,12 +49334,6 @@
       <c r="BL108" t="n">
         <v>102.57</v>
       </c>
-      <c r="BN108" t="n">
-        <v>15.93599999999969</v>
-      </c>
-      <c r="BO108" t="n">
-        <v>102.57</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -53169,12 +49459,6 @@
       <c r="BL109" t="n">
         <v>102.59</v>
       </c>
-      <c r="BN109" t="n">
-        <v>16.08500000000095</v>
-      </c>
-      <c r="BO109" t="n">
-        <v>102.59</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -53300,12 +49584,6 @@
       <c r="BL110" t="n">
         <v>102.59</v>
       </c>
-      <c r="BN110" t="n">
-        <v>16.23700000000099</v>
-      </c>
-      <c r="BO110" t="n">
-        <v>102.59</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -53431,12 +49709,6 @@
       <c r="BL111" t="n">
         <v>102.61</v>
       </c>
-      <c r="BN111" t="n">
-        <v>16.39100000000144</v>
-      </c>
-      <c r="BO111" t="n">
-        <v>102.61</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -53562,12 +49834,6 @@
       <c r="BL112" t="n">
         <v>102.63</v>
       </c>
-      <c r="BN112" t="n">
-        <v>16.53600000000006</v>
-      </c>
-      <c r="BO112" t="n">
-        <v>102.63</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -53693,12 +49959,6 @@
       <c r="BL113" t="n">
         <v>102.66</v>
       </c>
-      <c r="BN113" t="n">
-        <v>16.6869999999999</v>
-      </c>
-      <c r="BO113" t="n">
-        <v>102.66</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -53824,12 +50084,6 @@
       <c r="BL114" t="n">
         <v>102.67</v>
       </c>
-      <c r="BN114" t="n">
-        <v>16.83799999999974</v>
-      </c>
-      <c r="BO114" t="n">
-        <v>102.67</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -53955,12 +50209,6 @@
       <c r="BL115" t="n">
         <v>102.67</v>
       </c>
-      <c r="BN115" t="n">
-        <v>16.98800000000119</v>
-      </c>
-      <c r="BO115" t="n">
-        <v>102.67</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -54080,12 +50328,6 @@
       <c r="BL116" t="n">
         <v>102.69</v>
       </c>
-      <c r="BN116" t="n">
-        <v>17.14400000000023</v>
-      </c>
-      <c r="BO116" t="n">
-        <v>102.69</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -54205,12 +50447,6 @@
       <c r="BL117" t="n">
         <v>102.69</v>
       </c>
-      <c r="BN117" t="n">
-        <v>17.29500000000007</v>
-      </c>
-      <c r="BO117" t="n">
-        <v>102.69</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -54330,12 +50566,6 @@
       <c r="BL118" t="n">
         <v>102.71</v>
       </c>
-      <c r="BN118" t="n">
-        <v>17.4380000000001</v>
-      </c>
-      <c r="BO118" t="n">
-        <v>102.71</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -54455,12 +50685,6 @@
       <c r="BL119" t="n">
         <v>102.72</v>
       </c>
-      <c r="BN119" t="n">
-        <v>17.58899999999994</v>
-      </c>
-      <c r="BO119" t="n">
-        <v>102.72</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -54580,12 +50804,6 @@
       <c r="BL120" t="n">
         <v>102.75</v>
       </c>
-      <c r="BN120" t="n">
-        <v>17.73999999999978</v>
-      </c>
-      <c r="BO120" t="n">
-        <v>102.75</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -54705,12 +50923,6 @@
       <c r="BL121" t="n">
         <v>102.77</v>
       </c>
-      <c r="BN121" t="n">
-        <v>17.89000000000124</v>
-      </c>
-      <c r="BO121" t="n">
-        <v>102.77</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -54830,12 +51042,6 @@
       <c r="BL122" t="n">
         <v>102.78</v>
       </c>
-      <c r="BN122" t="n">
-        <v>18.04399999999987</v>
-      </c>
-      <c r="BO122" t="n">
-        <v>102.78</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -54955,12 +51161,6 @@
       <c r="BL123" t="n">
         <v>102.77</v>
       </c>
-      <c r="BN123" t="n">
-        <v>18.19599999999991</v>
-      </c>
-      <c r="BO123" t="n">
-        <v>102.77</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -55080,12 +51280,6 @@
       <c r="BL124" t="n">
         <v>102.79</v>
       </c>
-      <c r="BN124" t="n">
-        <v>18.33899999999994</v>
-      </c>
-      <c r="BO124" t="n">
-        <v>102.79</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -55205,12 +51399,6 @@
       <c r="BL125" t="n">
         <v>102.8</v>
       </c>
-      <c r="BN125" t="n">
-        <v>18.48999999999978</v>
-      </c>
-      <c r="BO125" t="n">
-        <v>102.8</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -55330,12 +51518,6 @@
       <c r="BL126" t="n">
         <v>102.82</v>
       </c>
-      <c r="BN126" t="n">
-        <v>18.64000000000124</v>
-      </c>
-      <c r="BO126" t="n">
-        <v>102.82</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -55455,12 +51637,6 @@
       <c r="BL127" t="n">
         <v>102.83</v>
       </c>
-      <c r="BN127" t="n">
-        <v>18.79100000000108</v>
-      </c>
-      <c r="BO127" t="n">
-        <v>102.83</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -55580,12 +51756,6 @@
       <c r="BL128" t="n">
         <v>102.85</v>
       </c>
-      <c r="BN128" t="n">
-        <v>18.94599999999991</v>
-      </c>
-      <c r="BO128" t="n">
-        <v>102.85</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -55705,12 +51875,6 @@
       <c r="BL129" t="n">
         <v>102.87</v>
       </c>
-      <c r="BN129" t="n">
-        <v>19.09699999999975</v>
-      </c>
-      <c r="BO129" t="n">
-        <v>102.87</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -55830,12 +51994,6 @@
       <c r="BL130" t="n">
         <v>102.86</v>
       </c>
-      <c r="BN130" t="n">
-        <v>19.24200000000019</v>
-      </c>
-      <c r="BO130" t="n">
-        <v>102.86</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -55955,12 +52113,6 @@
       <c r="BL131" t="n">
         <v>102.88</v>
       </c>
-      <c r="BN131" t="n">
-        <v>19.39199999999983</v>
-      </c>
-      <c r="BO131" t="n">
-        <v>102.88</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -56080,12 +52232,6 @@
       <c r="BL132" t="n">
         <v>102.88</v>
       </c>
-      <c r="BN132" t="n">
-        <v>19.54200000000128</v>
-      </c>
-      <c r="BO132" t="n">
-        <v>102.88</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -56205,12 +52351,6 @@
       <c r="BL133" t="n">
         <v>102.9</v>
       </c>
-      <c r="BN133" t="n">
-        <v>19.69599999999991</v>
-      </c>
-      <c r="BO133" t="n">
-        <v>102.9</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -56330,12 +52470,6 @@
       <c r="BL134" t="n">
         <v>102.92</v>
       </c>
-      <c r="BN134" t="n">
-        <v>19.84799999999996</v>
-      </c>
-      <c r="BO134" t="n">
-        <v>102.92</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -56455,12 +52589,6 @@
       <c r="BL135" t="n">
         <v>102.95</v>
       </c>
-      <c r="BN135" t="n">
-        <v>19.99800000000141</v>
-      </c>
-      <c r="BO135" t="n">
-        <v>102.95</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -56580,12 +52708,6 @@
       <c r="BL136" t="n">
         <v>102.95</v>
       </c>
-      <c r="BN136" t="n">
-        <v>20.14300000000003</v>
-      </c>
-      <c r="BO136" t="n">
-        <v>102.95</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -56705,12 +52827,6 @@
       <c r="BL137" t="n">
         <v>102.96</v>
       </c>
-      <c r="BN137" t="n">
-        <v>20.29299999999967</v>
-      </c>
-      <c r="BO137" t="n">
-        <v>102.96</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -56830,12 +52946,6 @@
       <c r="BL138" t="n">
         <v>102.97</v>
       </c>
-      <c r="BN138" t="n">
-        <v>20.44300000000112</v>
-      </c>
-      <c r="BO138" t="n">
-        <v>102.97</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -56955,12 +53065,6 @@
       <c r="BL139" t="n">
         <v>102.99</v>
       </c>
-      <c r="BN139" t="n">
-        <v>20.59699999999975</v>
-      </c>
-      <c r="BO139" t="n">
-        <v>102.99</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -57080,12 +53184,6 @@
       <c r="BL140" t="n">
         <v>102.99</v>
       </c>
-      <c r="BN140" t="n">
-        <v>20.7489999999998</v>
-      </c>
-      <c r="BO140" t="n">
-        <v>102.99</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -57205,12 +53303,6 @@
       <c r="BL141" t="n">
         <v>102.99</v>
       </c>
-      <c r="BN141" t="n">
-        <v>20.89999999999964</v>
-      </c>
-      <c r="BO141" t="n">
-        <v>102.99</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -57330,12 +53422,6 @@
       <c r="BL142" t="n">
         <v>103.01</v>
       </c>
-      <c r="BN142" t="n">
-        <v>21.04399999999987</v>
-      </c>
-      <c r="BO142" t="n">
-        <v>103.01</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -57455,12 +53541,6 @@
       <c r="BL143" t="n">
         <v>103.02</v>
       </c>
-      <c r="BN143" t="n">
-        <v>21.19599999999991</v>
-      </c>
-      <c r="BO143" t="n">
-        <v>103.02</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -57580,12 +53660,6 @@
       <c r="BL144" t="n">
         <v>103.04</v>
       </c>
-      <c r="BN144" t="n">
-        <v>21.34600000000137</v>
-      </c>
-      <c r="BO144" t="n">
-        <v>103.04</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -57705,12 +53779,6 @@
       <c r="BL145" t="n">
         <v>103.05</v>
       </c>
-      <c r="BN145" t="n">
-        <v>21.49700000000121</v>
-      </c>
-      <c r="BO145" t="n">
-        <v>103.05</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -57830,12 +53898,6 @@
       <c r="BL146" t="n">
         <v>103.07</v>
       </c>
-      <c r="BN146" t="n">
-        <v>21.65099999999984</v>
-      </c>
-      <c r="BO146" t="n">
-        <v>103.07</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -57955,12 +54017,6 @@
       <c r="BL147" t="n">
         <v>103.06</v>
       </c>
-      <c r="BN147" t="n">
-        <v>21.79700000000048</v>
-      </c>
-      <c r="BO147" t="n">
-        <v>103.06</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -58074,12 +54130,6 @@
       <c r="BL148" t="n">
         <v>103.07</v>
       </c>
-      <c r="BN148" t="n">
-        <v>21.94700000000012</v>
-      </c>
-      <c r="BO148" t="n">
-        <v>103.07</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -58193,12 +54243,6 @@
       <c r="BL149" t="n">
         <v>103.07</v>
       </c>
-      <c r="BN149" t="n">
-        <v>22.09799999999996</v>
-      </c>
-      <c r="BO149" t="n">
-        <v>103.07</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -58312,12 +54356,6 @@
       <c r="BL150" t="n">
         <v>103.08</v>
       </c>
-      <c r="BN150" t="n">
-        <v>22.24800000000141</v>
-      </c>
-      <c r="BO150" t="n">
-        <v>103.08</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -58431,12 +54469,6 @@
       <c r="BL151" t="n">
         <v>103.1</v>
       </c>
-      <c r="BN151" t="n">
-        <v>22.40400000000045</v>
-      </c>
-      <c r="BO151" t="n">
-        <v>103.1</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -58550,12 +54582,6 @@
       <c r="BL152" t="n">
         <v>103.11</v>
       </c>
-      <c r="BN152" t="n">
-        <v>22.55400000000009</v>
-      </c>
-      <c r="BO152" t="n">
-        <v>103.11</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -58669,12 +54695,6 @@
       <c r="BL153" t="n">
         <v>103.11</v>
       </c>
-      <c r="BN153" t="n">
-        <v>22.70399999999972</v>
-      </c>
-      <c r="BO153" t="n">
-        <v>103.11</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -58788,12 +54808,6 @@
       <c r="BL154" t="n">
         <v>103.13</v>
       </c>
-      <c r="BN154" t="n">
-        <v>22.85000000000036</v>
-      </c>
-      <c r="BO154" t="n">
-        <v>103.13</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -58907,12 +54921,6 @@
       <c r="BL155" t="n">
         <v>103.14</v>
       </c>
-      <c r="BN155" t="n">
-        <v>22.9989999999998</v>
-      </c>
-      <c r="BO155" t="n">
-        <v>103.14</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -59026,12 +55034,6 @@
       <c r="BL156" t="n">
         <v>103.15</v>
       </c>
-      <c r="BN156" t="n">
-        <v>23.14900000000125</v>
-      </c>
-      <c r="BO156" t="n">
-        <v>103.15</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -59145,12 +55147,6 @@
       <c r="BL157" t="n">
         <v>103.17</v>
       </c>
-      <c r="BN157" t="n">
-        <v>23.30299999999988</v>
-      </c>
-      <c r="BO157" t="n">
-        <v>103.17</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -59264,12 +55260,6 @@
       <c r="BL158" t="n">
         <v>103.17</v>
       </c>
-      <c r="BN158" t="n">
-        <v>23.45600000000013</v>
-      </c>
-      <c r="BO158" t="n">
-        <v>103.17</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -59383,12 +55373,6 @@
       <c r="BL159" t="n">
         <v>103.17</v>
       </c>
-      <c r="BN159" t="n">
-        <v>23.60500000000138</v>
-      </c>
-      <c r="BO159" t="n">
-        <v>103.17</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -59502,12 +55486,6 @@
       <c r="BL160" t="n">
         <v>103.19</v>
       </c>
-      <c r="BN160" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="BO160" t="n">
-        <v>103.19</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -59621,12 +55599,6 @@
       <c r="BL161" t="n">
         <v>103.21</v>
       </c>
-      <c r="BN161" t="n">
-        <v>23.90099999999984</v>
-      </c>
-      <c r="BO161" t="n">
-        <v>103.21</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -59740,12 +55712,6 @@
       <c r="BL162" t="n">
         <v>103.22</v>
       </c>
-      <c r="BN162" t="n">
-        <v>24.0510000000013</v>
-      </c>
-      <c r="BO162" t="n">
-        <v>103.22</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -59853,12 +55819,6 @@
       <c r="BL163" t="n">
         <v>103.22</v>
       </c>
-      <c r="BN163" t="n">
-        <v>24.20700000000033</v>
-      </c>
-      <c r="BO163" t="n">
-        <v>103.22</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -59966,12 +55926,6 @@
       <c r="BL164" t="n">
         <v>103.23</v>
       </c>
-      <c r="BN164" t="n">
-        <v>24.35800000000017</v>
-      </c>
-      <c r="BO164" t="n">
-        <v>103.23</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -60079,12 +56033,6 @@
       <c r="BL165" t="n">
         <v>103.24</v>
       </c>
-      <c r="BN165" t="n">
-        <v>24.50200000000041</v>
-      </c>
-      <c r="BO165" t="n">
-        <v>103.24</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -60186,12 +56134,6 @@
       <c r="BL166" t="n">
         <v>103.24</v>
       </c>
-      <c r="BN166" t="n">
-        <v>24.65200000000004</v>
-      </c>
-      <c r="BO166" t="n">
-        <v>103.24</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -60293,12 +56235,6 @@
       <c r="BL167" t="n">
         <v>103.26</v>
       </c>
-      <c r="BN167" t="n">
-        <v>24.80199999999968</v>
-      </c>
-      <c r="BO167" t="n">
-        <v>103.26</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -60400,12 +56336,6 @@
       <c r="BL168" t="n">
         <v>103.28</v>
       </c>
-      <c r="BN168" t="n">
-        <v>24.95200000000114</v>
-      </c>
-      <c r="BO168" t="n">
-        <v>103.28</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -60507,12 +56437,6 @@
       <c r="BL169" t="n">
         <v>103.29</v>
       </c>
-      <c r="BN169" t="n">
-        <v>25.11200000000099</v>
-      </c>
-      <c r="BO169" t="n">
-        <v>103.29</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -60614,12 +56538,6 @@
       <c r="BL170" t="n">
         <v>103.28</v>
       </c>
-      <c r="BN170" t="n">
-        <v>25.26300000000083</v>
-      </c>
-      <c r="BO170" t="n">
-        <v>103.28</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -60715,12 +56633,6 @@
       <c r="BL171" t="n">
         <v>103.31</v>
       </c>
-      <c r="BN171" t="n">
-        <v>25.40700000000106</v>
-      </c>
-      <c r="BO171" t="n">
-        <v>103.31</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -60816,12 +56728,6 @@
       <c r="BL172" t="n">
         <v>103.3</v>
       </c>
-      <c r="BN172" t="n">
-        <v>25.5580000000009</v>
-      </c>
-      <c r="BO172" t="n">
-        <v>103.3</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -60917,12 +56823,6 @@
       <c r="BL173" t="n">
         <v>103.32</v>
       </c>
-      <c r="BN173" t="n">
-        <v>25.70800000000054</v>
-      </c>
-      <c r="BO173" t="n">
-        <v>103.32</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -61018,12 +56918,6 @@
       <c r="BL174" t="n">
         <v>103.33</v>
       </c>
-      <c r="BN174" t="n">
-        <v>25.86000000000058</v>
-      </c>
-      <c r="BO174" t="n">
-        <v>103.33</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -61119,12 +57013,6 @@
       <c r="BL175" t="n">
         <v>103.34</v>
       </c>
-      <c r="BN175" t="n">
-        <v>26.01400000000103</v>
-      </c>
-      <c r="BO175" t="n">
-        <v>103.34</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -61220,12 +57108,6 @@
       <c r="BL176" t="n">
         <v>103.36</v>
       </c>
-      <c r="BN176" t="n">
-        <v>26.16500000000087</v>
-      </c>
-      <c r="BO176" t="n">
-        <v>103.36</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -61321,12 +57203,6 @@
       <c r="BL177" t="n">
         <v>103.36</v>
       </c>
-      <c r="BN177" t="n">
-        <v>26.31500000000051</v>
-      </c>
-      <c r="BO177" t="n">
-        <v>103.36</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -61422,12 +57298,6 @@
       <c r="BL178" t="n">
         <v>103.36</v>
       </c>
-      <c r="BN178" t="n">
-        <v>26.46000000000095</v>
-      </c>
-      <c r="BO178" t="n">
-        <v>103.36</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -61517,12 +57387,6 @@
       <c r="BL179" t="n">
         <v>103.38</v>
       </c>
-      <c r="BN179" t="n">
-        <v>26.61000000000058</v>
-      </c>
-      <c r="BO179" t="n">
-        <v>103.38</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -61612,12 +57476,6 @@
       <c r="BL180" t="n">
         <v>103.38</v>
       </c>
-      <c r="BN180" t="n">
-        <v>26.76100000000042</v>
-      </c>
-      <c r="BO180" t="n">
-        <v>103.38</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -61707,12 +57565,6 @@
       <c r="BL181" t="n">
         <v>103.38</v>
       </c>
-      <c r="BN181" t="n">
-        <v>26.91600000000108</v>
-      </c>
-      <c r="BO181" t="n">
-        <v>103.38</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -61802,12 +57654,6 @@
       <c r="BL182" t="n">
         <v>103.39</v>
       </c>
-      <c r="BN182" t="n">
-        <v>27.06900000000132</v>
-      </c>
-      <c r="BO182" t="n">
-        <v>103.39</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -61897,12 +57743,6 @@
       <c r="BL183" t="n">
         <v>103.41</v>
       </c>
-      <c r="BN183" t="n">
-        <v>27.21200000000135</v>
-      </c>
-      <c r="BO183" t="n">
-        <v>103.41</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -61992,12 +57832,6 @@
       <c r="BL184" t="n">
         <v>103.42</v>
       </c>
-      <c r="BN184" t="n">
-        <v>27.36300000000119</v>
-      </c>
-      <c r="BO184" t="n">
-        <v>103.42</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -62087,12 +57921,6 @@
       <c r="BL185" t="n">
         <v>103.42</v>
       </c>
-      <c r="BN185" t="n">
-        <v>27.51200000000063</v>
-      </c>
-      <c r="BO185" t="n">
-        <v>103.42</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -62182,12 +58010,6 @@
       <c r="BL186" t="n">
         <v>103.44</v>
       </c>
-      <c r="BN186" t="n">
-        <v>27.66400000000067</v>
-      </c>
-      <c r="BO186" t="n">
-        <v>103.44</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -62277,12 +58099,6 @@
       <c r="BL187" t="n">
         <v>103.44</v>
       </c>
-      <c r="BN187" t="n">
-        <v>27.81900000000132</v>
-      </c>
-      <c r="BO187" t="n">
-        <v>103.44</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -62366,12 +58182,6 @@
       <c r="BL188" t="n">
         <v>103.45</v>
       </c>
-      <c r="BN188" t="n">
-        <v>27.97000000000116</v>
-      </c>
-      <c r="BO188" t="n">
-        <v>103.45</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -62455,12 +58265,6 @@
       <c r="BL189" t="n">
         <v>103.46</v>
       </c>
-      <c r="BN189" t="n">
-        <v>28.11300000000119</v>
-      </c>
-      <c r="BO189" t="n">
-        <v>103.46</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -62544,12 +58348,6 @@
       <c r="BL190" t="n">
         <v>103.46</v>
       </c>
-      <c r="BN190" t="n">
-        <v>28.26500000000124</v>
-      </c>
-      <c r="BO190" t="n">
-        <v>103.46</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -62633,12 +58431,6 @@
       <c r="BL191" t="n">
         <v>103.49</v>
       </c>
-      <c r="BN191" t="n">
-        <v>28.41400000000067</v>
-      </c>
-      <c r="BO191" t="n">
-        <v>103.49</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -62722,12 +58514,6 @@
       <c r="BL192" t="n">
         <v>103.49</v>
       </c>
-      <c r="BN192" t="n">
-        <v>28.56500000000051</v>
-      </c>
-      <c r="BO192" t="n">
-        <v>103.49</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -62811,12 +58597,6 @@
       <c r="BL193" t="n">
         <v>103.49</v>
       </c>
-      <c r="BN193" t="n">
-        <v>28.72100000000137</v>
-      </c>
-      <c r="BO193" t="n">
-        <v>103.49</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -62900,12 +58680,6 @@
       <c r="BL194" t="n">
         <v>103.51</v>
       </c>
-      <c r="BN194" t="n">
-        <v>28.8640000000014</v>
-      </c>
-      <c r="BO194" t="n">
-        <v>103.51</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -62989,12 +58763,6 @@
       <c r="BL195" t="n">
         <v>103.51</v>
       </c>
-      <c r="BN195" t="n">
-        <v>29.01400000000103</v>
-      </c>
-      <c r="BO195" t="n">
-        <v>103.51</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -63078,12 +58846,6 @@
       <c r="BL196" t="n">
         <v>103.52</v>
       </c>
-      <c r="BN196" t="n">
-        <v>29.16400000000067</v>
-      </c>
-      <c r="BO196" t="n">
-        <v>103.52</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -63167,12 +58929,6 @@
       <c r="BL197" t="n">
         <v>103.54</v>
       </c>
-      <c r="BN197" t="n">
-        <v>29.31400000000031</v>
-      </c>
-      <c r="BO197" t="n">
-        <v>103.54</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -63256,12 +59012,6 @@
       <c r="BL198" t="n">
         <v>103.54</v>
       </c>
-      <c r="BN198" t="n">
-        <v>29.47100000000137</v>
-      </c>
-      <c r="BO198" t="n">
-        <v>103.54</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -63345,12 +59095,6 @@
       <c r="BL199" t="n">
         <v>103.54</v>
       </c>
-      <c r="BN199" t="n">
-        <v>29.62200000000121</v>
-      </c>
-      <c r="BO199" t="n">
-        <v>103.54</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -63434,12 +59178,6 @@
       <c r="BL200" t="n">
         <v>103.55</v>
       </c>
-      <c r="BN200" t="n">
-        <v>29.77100000000064</v>
-      </c>
-      <c r="BO200" t="n">
-        <v>103.55</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -63523,12 +59261,6 @@
       <c r="BL201" t="n">
         <v>103.57</v>
       </c>
-      <c r="BN201" t="n">
-        <v>29.91600000000108</v>
-      </c>
-      <c r="BO201" t="n">
-        <v>103.57</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -63612,12 +59344,6 @@
       <c r="BL202" t="n">
         <v>103.57</v>
       </c>
-      <c r="BN202" t="n">
-        <v>30.06600000000071</v>
-      </c>
-      <c r="BO202" t="n">
-        <v>103.57</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -63701,12 +59427,6 @@
       <c r="BL203" t="n">
         <v>103.58</v>
       </c>
-      <c r="BN203" t="n">
-        <v>30.21600000000035</v>
-      </c>
-      <c r="BO203" t="n">
-        <v>103.58</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -63790,12 +59510,6 @@
       <c r="BL204" t="n">
         <v>103.6</v>
       </c>
-      <c r="BN204" t="n">
-        <v>30.3700000000008</v>
-      </c>
-      <c r="BO204" t="n">
-        <v>103.6</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -63879,12 +59593,6 @@
       <c r="BL205" t="n">
         <v>103.59</v>
       </c>
-      <c r="BN205" t="n">
-        <v>30.52200000000084</v>
-      </c>
-      <c r="BO205" t="n">
-        <v>103.59</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -63968,12 +59676,6 @@
       <c r="BL206" t="n">
         <v>103.61</v>
       </c>
-      <c r="BN206" t="n">
-        <v>30.67200000000048</v>
-      </c>
-      <c r="BO206" t="n">
-        <v>103.61</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -64057,12 +59759,6 @@
       <c r="BL207" t="n">
         <v>103.62</v>
       </c>
-      <c r="BN207" t="n">
-        <v>30.81700000000092</v>
-      </c>
-      <c r="BO207" t="n">
-        <v>103.62</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -64146,12 +59842,6 @@
       <c r="BL208" t="n">
         <v>103.62</v>
       </c>
-      <c r="BN208" t="n">
-        <v>30.96700000000055</v>
-      </c>
-      <c r="BO208" t="n">
-        <v>103.62</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -64235,12 +59925,6 @@
       <c r="BL209" t="n">
         <v>103.62</v>
       </c>
-      <c r="BN209" t="n">
-        <v>31.11599999999999</v>
-      </c>
-      <c r="BO209" t="n">
-        <v>103.62</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -64324,12 +60008,6 @@
       <c r="BL210" t="n">
         <v>103.63</v>
       </c>
-      <c r="BN210" t="n">
-        <v>31.26800000000003</v>
-      </c>
-      <c r="BO210" t="n">
-        <v>103.63</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -64413,12 +60091,6 @@
       <c r="BL211" t="n">
         <v>103.64</v>
       </c>
-      <c r="BN211" t="n">
-        <v>31.4260000000013</v>
-      </c>
-      <c r="BO211" t="n">
-        <v>103.64</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -64502,12 +60174,6 @@
       <c r="BL212" t="n">
         <v>103.66</v>
       </c>
-      <c r="BN212" t="n">
-        <v>31.57800000000134</v>
-      </c>
-      <c r="BO212" t="n">
-        <v>103.66</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -64591,12 +60257,6 @@
       <c r="BL213" t="n">
         <v>103.67</v>
       </c>
-      <c r="BN213" t="n">
-        <v>31.72900000000118</v>
-      </c>
-      <c r="BO213" t="n">
-        <v>103.67</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -64680,12 +60340,6 @@
       <c r="BL214" t="n">
         <v>103.67</v>
       </c>
-      <c r="BN214" t="n">
-        <v>31.87300000000141</v>
-      </c>
-      <c r="BO214" t="n">
-        <v>103.67</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -64769,12 +60423,6 @@
       <c r="BL215" t="n">
         <v>103.7</v>
       </c>
-      <c r="BN215" t="n">
-        <v>32.02300000000105</v>
-      </c>
-      <c r="BO215" t="n">
-        <v>103.7</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -64858,12 +60506,6 @@
       <c r="BL216" t="n">
         <v>103.69</v>
       </c>
-      <c r="BN216" t="n">
-        <v>32.17300000000068</v>
-      </c>
-      <c r="BO216" t="n">
-        <v>103.69</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -64947,12 +60589,6 @@
       <c r="BL217" t="n">
         <v>103.68</v>
       </c>
-      <c r="BN217" t="n">
-        <v>32.32500000000073</v>
-      </c>
-      <c r="BO217" t="n">
-        <v>103.68</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -65036,12 +60672,6 @@
       <c r="BL218" t="n">
         <v>103.68</v>
       </c>
-      <c r="BN218" t="n">
-        <v>32.47900000000118</v>
-      </c>
-      <c r="BO218" t="n">
-        <v>103.68</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -65125,12 +60755,6 @@
       <c r="BL219" t="n">
         <v>103.69</v>
       </c>
-      <c r="BN219" t="n">
-        <v>32.62300000000141</v>
-      </c>
-      <c r="BO219" t="n">
-        <v>103.69</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -65202,12 +60826,6 @@
       <c r="BL220" t="n">
         <v>103.73</v>
       </c>
-      <c r="BN220" t="n">
-        <v>32.77300000000105</v>
-      </c>
-      <c r="BO220" t="n">
-        <v>103.73</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -65279,12 +60897,6 @@
       <c r="BL221" t="n">
         <v>103.72</v>
       </c>
-      <c r="BN221" t="n">
-        <v>32.92400000000089</v>
-      </c>
-      <c r="BO221" t="n">
-        <v>103.72</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -65356,12 +60968,6 @@
       <c r="BL222" t="n">
         <v>103.74</v>
       </c>
-      <c r="BN222" t="n">
-        <v>33.07400000000052</v>
-      </c>
-      <c r="BO222" t="n">
-        <v>103.74</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -65433,12 +61039,6 @@
       <c r="BL223" t="n">
         <v>103.75</v>
       </c>
-      <c r="BN223" t="n">
-        <v>33.22800000000097</v>
-      </c>
-      <c r="BO223" t="n">
-        <v>103.75</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -65510,12 +61110,6 @@
       <c r="BL224" t="n">
         <v>103.75</v>
       </c>
-      <c r="BN224" t="n">
-        <v>33.37900000000081</v>
-      </c>
-      <c r="BO224" t="n">
-        <v>103.75</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -65587,12 +61181,6 @@
       <c r="BL225" t="n">
         <v>103.75</v>
       </c>
-      <c r="BN225" t="n">
-        <v>33.52400000000125</v>
-      </c>
-      <c r="BO225" t="n">
-        <v>103.75</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -65658,12 +61246,6 @@
       <c r="BL226" t="n">
         <v>103.76</v>
       </c>
-      <c r="BN226" t="n">
-        <v>33.67400000000089</v>
-      </c>
-      <c r="BO226" t="n">
-        <v>103.76</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -65729,12 +61311,6 @@
       <c r="BL227" t="n">
         <v>103.77</v>
       </c>
-      <c r="BN227" t="n">
-        <v>33.82400000000052</v>
-      </c>
-      <c r="BO227" t="n">
-        <v>103.77</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -65800,12 +61376,6 @@
       <c r="BL228" t="n">
         <v>103.77</v>
       </c>
-      <c r="BN228" t="n">
-        <v>33.97900000000118</v>
-      </c>
-      <c r="BO228" t="n">
-        <v>103.77</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -65871,12 +61441,6 @@
       <c r="BL229" t="n">
         <v>103.78</v>
       </c>
-      <c r="BN229" t="n">
-        <v>34.13000000000102</v>
-      </c>
-      <c r="BO229" t="n">
-        <v>103.78</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -65942,12 +61506,6 @@
       <c r="BL230" t="n">
         <v>103.78</v>
       </c>
-      <c r="BN230" t="n">
-        <v>34.27400000000125</v>
-      </c>
-      <c r="BO230" t="n">
-        <v>103.78</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -66013,12 +61571,6 @@
       <c r="BL231" t="n">
         <v>103.79</v>
       </c>
-      <c r="BN231" t="n">
-        <v>34.4260000000013</v>
-      </c>
-      <c r="BO231" t="n">
-        <v>103.79</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -66084,12 +61636,6 @@
       <c r="BL232" t="n">
         <v>103.81</v>
       </c>
-      <c r="BN232" t="n">
-        <v>34.57500000000073</v>
-      </c>
-      <c r="BO232" t="n">
-        <v>103.81</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -66155,12 +61701,6 @@
       <c r="BL233" t="n">
         <v>103.78</v>
       </c>
-      <c r="BN233" t="n">
-        <v>34.72700000000077</v>
-      </c>
-      <c r="BO233" t="n">
-        <v>103.78</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -66226,12 +61766,6 @@
       <c r="BL234" t="n">
         <v>103.79</v>
       </c>
-      <c r="BN234" t="n">
-        <v>34.88200000000143</v>
-      </c>
-      <c r="BO234" t="n">
-        <v>103.79</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -66297,12 +61831,6 @@
       <c r="BL235" t="n">
         <v>103.8</v>
       </c>
-      <c r="BN235" t="n">
-        <v>35.02700000000004</v>
-      </c>
-      <c r="BO235" t="n">
-        <v>103.8</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -66368,12 +61896,6 @@
       <c r="BL236" t="n">
         <v>103.8</v>
       </c>
-      <c r="BN236" t="n">
-        <v>35.17699999999968</v>
-      </c>
-      <c r="BO236" t="n">
-        <v>103.8</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -66439,12 +61961,6 @@
       <c r="BL237" t="n">
         <v>103.8</v>
       </c>
-      <c r="BN237" t="n">
-        <v>35.32800000000134</v>
-      </c>
-      <c r="BO237" t="n">
-        <v>103.8</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -66504,12 +62020,6 @@
       <c r="BL238" t="n">
         <v>103.81</v>
       </c>
-      <c r="BN238" t="n">
-        <v>35.47600000000057</v>
-      </c>
-      <c r="BO238" t="n">
-        <v>103.81</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -66569,12 +62079,6 @@
       <c r="BL239" t="n">
         <v>103.83</v>
       </c>
-      <c r="BN239" t="n">
-        <v>35.63299999999981</v>
-      </c>
-      <c r="BO239" t="n">
-        <v>103.83</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -66634,12 +62138,6 @@
       <c r="BL240" t="n">
         <v>103.83</v>
       </c>
-      <c r="BN240" t="n">
-        <v>35.78300000000127</v>
-      </c>
-      <c r="BO240" t="n">
-        <v>103.83</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -66699,12 +62197,6 @@
       <c r="BL241" t="n">
         <v>103.83</v>
       </c>
-      <c r="BN241" t="n">
-        <v>35.9330000000009</v>
-      </c>
-      <c r="BO241" t="n">
-        <v>103.83</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -66764,12 +62256,6 @@
       <c r="BL242" t="n">
         <v>103.84</v>
       </c>
-      <c r="BN242" t="n">
-        <v>36.07899999999972</v>
-      </c>
-      <c r="BO242" t="n">
-        <v>103.84</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -66829,12 +62315,6 @@
       <c r="BL243" t="n">
         <v>103.84</v>
       </c>
-      <c r="BN243" t="n">
-        <v>36.23000000000138</v>
-      </c>
-      <c r="BO243" t="n">
-        <v>103.84</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -66894,12 +62374,6 @@
       <c r="BL244" t="n">
         <v>103.85</v>
       </c>
-      <c r="BN244" t="n">
-        <v>36.38000000000102</v>
-      </c>
-      <c r="BO244" t="n">
-        <v>103.85</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -66959,12 +62433,6 @@
       <c r="BL245" t="n">
         <v>103.86</v>
       </c>
-      <c r="BN245" t="n">
-        <v>36.53300000000127</v>
-      </c>
-      <c r="BO245" t="n">
-        <v>103.86</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -67024,12 +62492,6 @@
       <c r="BL246" t="n">
         <v>103.87</v>
       </c>
-      <c r="BN246" t="n">
-        <v>36.6880000000001</v>
-      </c>
-      <c r="BO246" t="n">
-        <v>103.87</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -67089,12 +62551,6 @@
       <c r="BL247" t="n">
         <v>103.86</v>
       </c>
-      <c r="BN247" t="n">
-        <v>36.83799999999974</v>
-      </c>
-      <c r="BO247" t="n">
-        <v>103.86</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -67154,12 +62610,6 @@
       <c r="BL248" t="n">
         <v>103.86</v>
       </c>
-      <c r="BN248" t="n">
-        <v>36.98300000000017</v>
-      </c>
-      <c r="BO248" t="n">
-        <v>103.86</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -67219,12 +62669,6 @@
       <c r="BL249" t="n">
         <v>103.88</v>
       </c>
-      <c r="BN249" t="n">
-        <v>37.13299999999981</v>
-      </c>
-      <c r="BO249" t="n">
-        <v>103.88</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -67284,12 +62728,6 @@
       <c r="BL250" t="n">
         <v>103.89</v>
       </c>
-      <c r="BN250" t="n">
-        <v>37.28300000000127</v>
-      </c>
-      <c r="BO250" t="n">
-        <v>103.89</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -67349,12 +62787,6 @@
       <c r="BL251" t="n">
         <v>103.9</v>
       </c>
-      <c r="BN251" t="n">
-        <v>37.4369999999999</v>
-      </c>
-      <c r="BO251" t="n">
-        <v>103.9</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -67414,12 +62846,6 @@
       <c r="BL252" t="n">
         <v>103.91</v>
       </c>
-      <c r="BN252" t="n">
-        <v>37.58899999999994</v>
-      </c>
-      <c r="BO252" t="n">
-        <v>103.91</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -67479,12 +62905,6 @@
       <c r="BL253" t="n">
         <v>103.89</v>
       </c>
-      <c r="BN253" t="n">
-        <v>37.7390000000014</v>
-      </c>
-      <c r="BO253" t="n">
-        <v>103.89</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -67544,12 +62964,6 @@
       <c r="BL254" t="n">
         <v>103.9</v>
       </c>
-      <c r="BN254" t="n">
-        <v>37.88400000000001</v>
-      </c>
-      <c r="BO254" t="n">
-        <v>103.9</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -67609,12 +63023,6 @@
       <c r="BL255" t="n">
         <v>103.91</v>
       </c>
-      <c r="BN255" t="n">
-        <v>38.03399999999965</v>
-      </c>
-      <c r="BO255" t="n">
-        <v>103.91</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -67674,12 +63082,6 @@
       <c r="BL256" t="n">
         <v>103.91</v>
       </c>
-      <c r="BN256" t="n">
-        <v>38.18500000000131</v>
-      </c>
-      <c r="BO256" t="n">
-        <v>103.91</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -67739,12 +63141,6 @@
       <c r="BL257" t="n">
         <v>103.92</v>
       </c>
-      <c r="BN257" t="n">
-        <v>38.33500000000095</v>
-      </c>
-      <c r="BO257" t="n">
-        <v>103.92</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -67804,12 +63200,6 @@
       <c r="BL258" t="n">
         <v>103.92</v>
       </c>
-      <c r="BN258" t="n">
-        <v>38.49200000000019</v>
-      </c>
-      <c r="BO258" t="n">
-        <v>103.92</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -67869,12 +63259,6 @@
       <c r="BL259" t="n">
         <v>103.93</v>
       </c>
-      <c r="BN259" t="n">
-        <v>38.64199999999983</v>
-      </c>
-      <c r="BO259" t="n">
-        <v>103.93</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -67934,12 +63318,6 @@
       <c r="BL260" t="n">
         <v>103.94</v>
       </c>
-      <c r="BN260" t="n">
-        <v>38.79100000000108</v>
-      </c>
-      <c r="BO260" t="n">
-        <v>103.94</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -67999,12 +63377,6 @@
       <c r="BL261" t="n">
         <v>103.93</v>
       </c>
-      <c r="BN261" t="n">
-        <v>38.93599999999969</v>
-      </c>
-      <c r="BO261" t="n">
-        <v>103.93</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -68064,12 +63436,6 @@
       <c r="BL262" t="n">
         <v>103.94</v>
       </c>
-      <c r="BN262" t="n">
-        <v>39.08600000000115</v>
-      </c>
-      <c r="BO262" t="n">
-        <v>103.94</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -68129,12 +63495,6 @@
       <c r="BL263" t="n">
         <v>103.96</v>
       </c>
-      <c r="BN263" t="n">
-        <v>39.23600000000079</v>
-      </c>
-      <c r="BO263" t="n">
-        <v>103.96</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -68194,12 +63554,6 @@
       <c r="BL264" t="n">
         <v>103.94</v>
       </c>
-      <c r="BN264" t="n">
-        <v>39.39199999999983</v>
-      </c>
-      <c r="BO264" t="n">
-        <v>103.94</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -68259,12 +63613,6 @@
       <c r="BL265" t="n">
         <v>103.95</v>
       </c>
-      <c r="BN265" t="n">
-        <v>39.54299999999967</v>
-      </c>
-      <c r="BO265" t="n">
-        <v>103.95</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -68324,12 +63672,6 @@
       <c r="BL266" t="n">
         <v>103.96</v>
       </c>
-      <c r="BN266" t="n">
-        <v>39.69300000000112</v>
-      </c>
-      <c r="BO266" t="n">
-        <v>103.96</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -68389,12 +63731,6 @@
       <c r="BL267" t="n">
         <v>103.96</v>
       </c>
-      <c r="BN267" t="n">
-        <v>39.83700000000135</v>
-      </c>
-      <c r="BO267" t="n">
-        <v>103.96</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -68454,12 +63790,6 @@
       <c r="BL268" t="n">
         <v>103.97</v>
       </c>
-      <c r="BN268" t="n">
-        <v>39.98700000000099</v>
-      </c>
-      <c r="BO268" t="n">
-        <v>103.97</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -68519,12 +63849,6 @@
       <c r="BL269" t="n">
         <v>103.97</v>
       </c>
-      <c r="BN269" t="n">
-        <v>40.13700000000063</v>
-      </c>
-      <c r="BO269" t="n">
-        <v>103.97</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -68584,12 +63908,6 @@
       <c r="BL270" t="n">
         <v>103.96</v>
       </c>
-      <c r="BN270" t="n">
-        <v>40.29200000000128</v>
-      </c>
-      <c r="BO270" t="n">
-        <v>103.96</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -68649,12 +63967,6 @@
       <c r="BL271" t="n">
         <v>103.96</v>
       </c>
-      <c r="BN271" t="n">
-        <v>40.44400000000132</v>
-      </c>
-      <c r="BO271" t="n">
-        <v>103.96</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -68714,12 +64026,6 @@
       <c r="BL272" t="n">
         <v>103.98</v>
       </c>
-      <c r="BN272" t="n">
-        <v>40.58700000000135</v>
-      </c>
-      <c r="BO272" t="n">
-        <v>103.98</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -68779,12 +64085,6 @@
       <c r="BL273" t="n">
         <v>103.99</v>
       </c>
-      <c r="BN273" t="n">
-        <v>40.73800000000119</v>
-      </c>
-      <c r="BO273" t="n">
-        <v>103.99</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -68844,12 +64144,6 @@
       <c r="BL274" t="n">
         <v>104</v>
       </c>
-      <c r="BN274" t="n">
-        <v>40.88800000000083</v>
-      </c>
-      <c r="BO274" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -68909,12 +64203,6 @@
       <c r="BL275" t="n">
         <v>104.01</v>
       </c>
-      <c r="BN275" t="n">
-        <v>41.03900000000067</v>
-      </c>
-      <c r="BO275" t="n">
-        <v>104.01</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -68974,12 +64262,6 @@
       <c r="BL276" t="n">
         <v>104</v>
       </c>
-      <c r="BN276" t="n">
-        <v>41.19400000000132</v>
-      </c>
-      <c r="BO276" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -69039,12 +64321,6 @@
       <c r="BL277" t="n">
         <v>104</v>
       </c>
-      <c r="BN277" t="n">
-        <v>41.34400000000096</v>
-      </c>
-      <c r="BO277" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -69104,12 +64380,6 @@
       <c r="BL278" t="n">
         <v>104.01</v>
       </c>
-      <c r="BN278" t="n">
-        <v>41.48800000000119</v>
-      </c>
-      <c r="BO278" t="n">
-        <v>104.01</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -69163,12 +64433,6 @@
       <c r="BL279" t="n">
         <v>104.01</v>
       </c>
-      <c r="BN279" t="n">
-        <v>41.63900000000103</v>
-      </c>
-      <c r="BO279" t="n">
-        <v>104.01</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -69222,12 +64486,6 @@
       <c r="BL280" t="n">
         <v>104.01</v>
       </c>
-      <c r="BN280" t="n">
-        <v>41.79000000000087</v>
-      </c>
-      <c r="BO280" t="n">
-        <v>104.01</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -69281,12 +64539,6 @@
       <c r="BL281" t="n">
         <v>104.01</v>
       </c>
-      <c r="BN281" t="n">
-        <v>41.94000000000051</v>
-      </c>
-      <c r="BO281" t="n">
-        <v>104.01</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -69340,12 +64592,6 @@
       <c r="BL282" t="n">
         <v>104.03</v>
       </c>
-      <c r="BN282" t="n">
-        <v>42.09699999999975</v>
-      </c>
-      <c r="BO282" t="n">
-        <v>104.03</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -69399,12 +64645,6 @@
       <c r="BL283" t="n">
         <v>104.02</v>
       </c>
-      <c r="BN283" t="n">
-        <v>42.24700000000121</v>
-      </c>
-      <c r="BO283" t="n">
-        <v>104.02</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -69458,12 +64698,6 @@
       <c r="BL284" t="n">
         <v>104.03</v>
       </c>
-      <c r="BN284" t="n">
-        <v>42.39700000000084</v>
-      </c>
-      <c r="BO284" t="n">
-        <v>104.03</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -69517,12 +64751,6 @@
       <c r="BL285" t="n">
         <v>104.04</v>
       </c>
-      <c r="BN285" t="n">
-        <v>42.54200000000128</v>
-      </c>
-      <c r="BO285" t="n">
-        <v>104.04</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -69570,12 +64798,6 @@
       <c r="BL286" t="n">
         <v>104.03</v>
       </c>
-      <c r="BN286" t="n">
-        <v>42.69200000000092</v>
-      </c>
-      <c r="BO286" t="n">
-        <v>104.03</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -69623,12 +64845,6 @@
       <c r="BL287" t="n">
         <v>104.05</v>
       </c>
-      <c r="BN287" t="n">
-        <v>42.84200000000055</v>
-      </c>
-      <c r="BO287" t="n">
-        <v>104.05</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -69676,12 +64892,6 @@
       <c r="BL288" t="n">
         <v>104.04</v>
       </c>
-      <c r="BN288" t="n">
-        <v>42.9950000000008</v>
-      </c>
-      <c r="BO288" t="n">
-        <v>104.04</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -69729,12 +64939,6 @@
       <c r="BL289" t="n">
         <v>104.04</v>
       </c>
-      <c r="BN289" t="n">
-        <v>43.14999999999964</v>
-      </c>
-      <c r="BO289" t="n">
-        <v>104.04</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -69782,12 +64986,6 @@
       <c r="BL290" t="n">
         <v>104.05</v>
       </c>
-      <c r="BN290" t="n">
-        <v>43.30000000000109</v>
-      </c>
-      <c r="BO290" t="n">
-        <v>104.05</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -69835,12 +65033,6 @@
       <c r="BL291" t="n">
         <v>104.05</v>
       </c>
-      <c r="BN291" t="n">
-        <v>43.44400000000132</v>
-      </c>
-      <c r="BO291" t="n">
-        <v>104.05</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -69888,12 +65080,6 @@
       <c r="BL292" t="n">
         <v>104.06</v>
       </c>
-      <c r="BN292" t="n">
-        <v>43.59500000000116</v>
-      </c>
-      <c r="BO292" t="n">
-        <v>104.06</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -69941,12 +65127,6 @@
       <c r="BL293" t="n">
         <v>104.07</v>
       </c>
-      <c r="BN293" t="n">
-        <v>43.746000000001</v>
-      </c>
-      <c r="BO293" t="n">
-        <v>104.07</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -69994,12 +65174,6 @@
       <c r="BL294" t="n">
         <v>104.08</v>
       </c>
-      <c r="BN294" t="n">
-        <v>43.89999999999964</v>
-      </c>
-      <c r="BO294" t="n">
-        <v>104.08</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -70047,12 +65221,6 @@
       <c r="BL295" t="n">
         <v>104.08</v>
       </c>
-      <c r="BN295" t="n">
-        <v>44.05199999999968</v>
-      </c>
-      <c r="BO295" t="n">
-        <v>104.08</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -70100,12 +65268,6 @@
       <c r="BL296" t="n">
         <v>104.08</v>
       </c>
-      <c r="BN296" t="n">
-        <v>44.19599999999991</v>
-      </c>
-      <c r="BO296" t="n">
-        <v>104.08</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -70153,12 +65315,6 @@
       <c r="BL297" t="n">
         <v>104.08</v>
       </c>
-      <c r="BN297" t="n">
-        <v>44.34699999999975</v>
-      </c>
-      <c r="BO297" t="n">
-        <v>104.08</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -70206,12 +65362,6 @@
       <c r="BL298" t="n">
         <v>104.09</v>
       </c>
-      <c r="BN298" t="n">
-        <v>44.4950000000008</v>
-      </c>
-      <c r="BO298" t="n">
-        <v>104.09</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -70259,12 +65409,6 @@
       <c r="BL299" t="n">
         <v>104.09</v>
       </c>
-      <c r="BN299" t="n">
-        <v>44.64800000000105</v>
-      </c>
-      <c r="BO299" t="n">
-        <v>104.09</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -70312,12 +65456,6 @@
       <c r="BL300" t="n">
         <v>104.09</v>
       </c>
-      <c r="BN300" t="n">
-        <v>44.80299999999988</v>
-      </c>
-      <c r="BO300" t="n">
-        <v>104.09</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -70359,12 +65497,6 @@
       <c r="BL301" t="n">
         <v>104.1</v>
       </c>
-      <c r="BN301" t="n">
-        <v>44.95200000000114</v>
-      </c>
-      <c r="BO301" t="n">
-        <v>104.1</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -70406,12 +65538,6 @@
       <c r="BL302" t="n">
         <v>104.11</v>
       </c>
-      <c r="BN302" t="n">
-        <v>45.09600000000137</v>
-      </c>
-      <c r="BO302" t="n">
-        <v>104.11</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -70453,12 +65579,6 @@
       <c r="BL303" t="n">
         <v>104.12</v>
       </c>
-      <c r="BN303" t="n">
-        <v>45.24800000000141</v>
-      </c>
-      <c r="BO303" t="n">
-        <v>104.12</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -70500,12 +65620,6 @@
       <c r="BL304" t="n">
         <v>104.12</v>
       </c>
-      <c r="BN304" t="n">
-        <v>45.39800000000105</v>
-      </c>
-      <c r="BO304" t="n">
-        <v>104.12</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -70547,12 +65661,6 @@
       <c r="BL305" t="n">
         <v>104.11</v>
       </c>
-      <c r="BN305" t="n">
-        <v>45.5510000000013</v>
-      </c>
-      <c r="BO305" t="n">
-        <v>104.11</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -70594,12 +65702,6 @@
       <c r="BL306" t="n">
         <v>104.1</v>
       </c>
-      <c r="BN306" t="n">
-        <v>45.70399999999972</v>
-      </c>
-      <c r="BO306" t="n">
-        <v>104.1</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -70641,12 +65743,6 @@
       <c r="BL307" t="n">
         <v>104.12</v>
       </c>
-      <c r="BN307" t="n">
-        <v>45.85300000000097</v>
-      </c>
-      <c r="BO307" t="n">
-        <v>104.12</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -70688,12 +65784,6 @@
       <c r="BL308" t="n">
         <v>104.12</v>
       </c>
-      <c r="BN308" t="n">
-        <v>45.99800000000141</v>
-      </c>
-      <c r="BO308" t="n">
-        <v>104.12</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -70735,12 +65825,6 @@
       <c r="BL309" t="n">
         <v>104.13</v>
       </c>
-      <c r="BN309" t="n">
-        <v>46.14800000000105</v>
-      </c>
-      <c r="BO309" t="n">
-        <v>104.13</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -70782,12 +65866,6 @@
       <c r="BL310" t="n">
         <v>104.15</v>
       </c>
-      <c r="BN310" t="n">
-        <v>46.29800000000068</v>
-      </c>
-      <c r="BO310" t="n">
-        <v>104.15</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -70829,12 +65907,6 @@
       <c r="BL311" t="n">
         <v>104.13</v>
       </c>
-      <c r="BN311" t="n">
-        <v>46.45200000000114</v>
-      </c>
-      <c r="BO311" t="n">
-        <v>104.13</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -70876,12 +65948,6 @@
       <c r="BL312" t="n">
         <v>104.14</v>
       </c>
-      <c r="BN312" t="n">
-        <v>46.60300000000097</v>
-      </c>
-      <c r="BO312" t="n">
-        <v>104.14</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -70923,12 +65989,6 @@
       <c r="BL313" t="n">
         <v>104.14</v>
       </c>
-      <c r="BN313" t="n">
-        <v>46.75300000000061</v>
-      </c>
-      <c r="BO313" t="n">
-        <v>104.14</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -70970,12 +66030,6 @@
       <c r="BL314" t="n">
         <v>104.14</v>
       </c>
-      <c r="BN314" t="n">
-        <v>46.89800000000105</v>
-      </c>
-      <c r="BO314" t="n">
-        <v>104.14</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -71017,12 +66071,6 @@
       <c r="BL315" t="n">
         <v>104.15</v>
       </c>
-      <c r="BN315" t="n">
-        <v>47.05000000000109</v>
-      </c>
-      <c r="BO315" t="n">
-        <v>104.15</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -71064,12 +66112,6 @@
       <c r="BL316" t="n">
         <v>104.14</v>
       </c>
-      <c r="BN316" t="n">
-        <v>47.19900000000052</v>
-      </c>
-      <c r="BO316" t="n">
-        <v>104.14</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -71111,12 +66153,6 @@
       <c r="BL317" t="n">
         <v>104.14</v>
       </c>
-      <c r="BN317" t="n">
-        <v>47.35100000000057</v>
-      </c>
-      <c r="BO317" t="n">
-        <v>104.14</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -71158,12 +66194,6 @@
       <c r="BL318" t="n">
         <v>104.17</v>
       </c>
-      <c r="BN318" t="n">
-        <v>47.50600000000122</v>
-      </c>
-      <c r="BO318" t="n">
-        <v>104.17</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -71205,12 +66235,6 @@
       <c r="BL319" t="n">
         <v>104.16</v>
       </c>
-      <c r="BN319" t="n">
-        <v>47.65800000000127</v>
-      </c>
-      <c r="BO319" t="n">
-        <v>104.16</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -71252,12 +66276,6 @@
       <c r="BL320" t="n">
         <v>104.15</v>
       </c>
-      <c r="BN320" t="n">
-        <v>47.80199999999968</v>
-      </c>
-      <c r="BO320" t="n">
-        <v>104.15</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -71299,12 +66317,6 @@
       <c r="BL321" t="n">
         <v>104.17</v>
       </c>
-      <c r="BN321" t="n">
-        <v>47.95100000000093</v>
-      </c>
-      <c r="BO321" t="n">
-        <v>104.17</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -71346,12 +66358,6 @@
       <c r="BL322" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN322" t="n">
-        <v>48.10200000000077</v>
-      </c>
-      <c r="BO322" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -71393,12 +66399,6 @@
       <c r="BL323" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN323" t="n">
-        <v>48.25200000000041</v>
-      </c>
-      <c r="BO323" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -71440,12 +66440,6 @@
       <c r="BL324" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN324" t="n">
-        <v>48.40800000000127</v>
-      </c>
-      <c r="BO324" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -71487,12 +66481,6 @@
       <c r="BL325" t="n">
         <v>104.17</v>
       </c>
-      <c r="BN325" t="n">
-        <v>48.5580000000009</v>
-      </c>
-      <c r="BO325" t="n">
-        <v>104.17</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -71534,12 +66522,6 @@
       <c r="BL326" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN326" t="n">
-        <v>48.70300000000134</v>
-      </c>
-      <c r="BO326" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -71581,12 +66563,6 @@
       <c r="BL327" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN327" t="n">
-        <v>48.85400000000118</v>
-      </c>
-      <c r="BO327" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -71628,12 +66604,6 @@
       <c r="BL328" t="n">
         <v>104.18</v>
       </c>
-      <c r="BN328" t="n">
-        <v>49.00200000000041</v>
-      </c>
-      <c r="BO328" t="n">
-        <v>104.18</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -71675,12 +66645,6 @@
       <c r="BL329" t="n">
         <v>104.19</v>
       </c>
-      <c r="BN329" t="n">
-        <v>49.15400000000045</v>
-      </c>
-      <c r="BO329" t="n">
-        <v>104.19</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -71716,12 +66680,6 @@
       <c r="BL330" t="n">
         <v>104.19</v>
       </c>
-      <c r="BN330" t="n">
-        <v>49.30900000000111</v>
-      </c>
-      <c r="BO330" t="n">
-        <v>104.19</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -71757,12 +66715,6 @@
       <c r="BL331" t="n">
         <v>104.19</v>
       </c>
-      <c r="BN331" t="n">
-        <v>49.46000000000095</v>
-      </c>
-      <c r="BO331" t="n">
-        <v>104.19</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -71798,12 +66750,6 @@
       <c r="BL332" t="n">
         <v>104.19</v>
       </c>
-      <c r="BN332" t="n">
-        <v>49.60400000000118</v>
-      </c>
-      <c r="BO332" t="n">
-        <v>104.19</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -71839,12 +66785,6 @@
       <c r="BL333" t="n">
         <v>104.21</v>
       </c>
-      <c r="BN333" t="n">
-        <v>49.75500000000102</v>
-      </c>
-      <c r="BO333" t="n">
-        <v>104.21</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -71880,12 +66820,6 @@
       <c r="BL334" t="n">
         <v>104.21</v>
       </c>
-      <c r="BN334" t="n">
-        <v>49.90400000000045</v>
-      </c>
-      <c r="BO334" t="n">
-        <v>104.21</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -71921,12 +66855,6 @@
       <c r="BL335" t="n">
         <v>104.2</v>
       </c>
-      <c r="BN335" t="n">
-        <v>50.05500000000029</v>
-      </c>
-      <c r="BO335" t="n">
-        <v>104.2</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -71962,12 +66890,6 @@
       <c r="BL336" t="n">
         <v>104.19</v>
       </c>
-      <c r="BN336" t="n">
-        <v>50.21000000000095</v>
-      </c>
-      <c r="BO336" t="n">
-        <v>104.19</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -72003,12 +66925,6 @@
       <c r="BL337" t="n">
         <v>104.2</v>
       </c>
-      <c r="BN337" t="n">
-        <v>50.36100000000079</v>
-      </c>
-      <c r="BO337" t="n">
-        <v>104.2</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -72044,12 +66960,6 @@
       <c r="BL338" t="n">
         <v>104.21</v>
       </c>
-      <c r="BN338" t="n">
-        <v>50.50500000000102</v>
-      </c>
-      <c r="BO338" t="n">
-        <v>104.21</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -72085,12 +66995,6 @@
       <c r="BL339" t="n">
         <v>104.23</v>
       </c>
-      <c r="BN339" t="n">
-        <v>50.65500000000065</v>
-      </c>
-      <c r="BO339" t="n">
-        <v>104.23</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -72126,12 +67030,6 @@
       <c r="BL340" t="n">
         <v>104.24</v>
       </c>
-      <c r="BN340" t="n">
-        <v>50.80500000000029</v>
-      </c>
-      <c r="BO340" t="n">
-        <v>104.24</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -72167,12 +67065,6 @@
       <c r="BL341" t="n">
         <v>104.24</v>
       </c>
-      <c r="BN341" t="n">
-        <v>50.95700000000033</v>
-      </c>
-      <c r="BO341" t="n">
-        <v>104.24</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -72208,12 +67100,6 @@
       <c r="BL342" t="n">
         <v>104.24</v>
       </c>
-      <c r="BN342" t="n">
-        <v>51.11100000000079</v>
-      </c>
-      <c r="BO342" t="n">
-        <v>104.24</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -72249,12 +67135,6 @@
       <c r="BL343" t="n">
         <v>104.22</v>
       </c>
-      <c r="BN343" t="n">
-        <v>51.26100000000042</v>
-      </c>
-      <c r="BO343" t="n">
-        <v>104.22</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -72290,12 +67170,6 @@
       <c r="BL344" t="n">
         <v>104.23</v>
       </c>
-      <c r="BN344" t="n">
-        <v>51.40500000000065</v>
-      </c>
-      <c r="BO344" t="n">
-        <v>104.23</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -72331,12 +67205,6 @@
       <c r="BL345" t="n">
         <v>104.25</v>
       </c>
-      <c r="BN345" t="n">
-        <v>51.55600000000049</v>
-      </c>
-      <c r="BO345" t="n">
-        <v>104.25</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -72372,12 +67240,6 @@
       <c r="BL346" t="n">
         <v>104.24</v>
       </c>
-      <c r="BN346" t="n">
-        <v>51.70600000000013</v>
-      </c>
-      <c r="BO346" t="n">
-        <v>104.24</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -72413,12 +67275,6 @@
       <c r="BL347" t="n">
         <v>104.25</v>
       </c>
-      <c r="BN347" t="n">
-        <v>51.86300000000119</v>
-      </c>
-      <c r="BO347" t="n">
-        <v>104.25</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -72454,12 +67310,6 @@
       <c r="BL348" t="n">
         <v>104.25</v>
       </c>
-      <c r="BN348" t="n">
-        <v>52.01500000000124</v>
-      </c>
-      <c r="BO348" t="n">
-        <v>104.25</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -72495,12 +67345,6 @@
       <c r="BL349" t="n">
         <v>104.27</v>
       </c>
-      <c r="BN349" t="n">
-        <v>52.15800000000127</v>
-      </c>
-      <c r="BO349" t="n">
-        <v>104.27</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -72536,12 +67380,6 @@
       <c r="BL350" t="n">
         <v>104.26</v>
       </c>
-      <c r="BN350" t="n">
-        <v>52.30900000000111</v>
-      </c>
-      <c r="BO350" t="n">
-        <v>104.26</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -72577,12 +67415,6 @@
       <c r="BL351" t="n">
         <v>104.28</v>
       </c>
-      <c r="BN351" t="n">
-        <v>52.45900000000074</v>
-      </c>
-      <c r="BO351" t="n">
-        <v>104.28</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -72618,12 +67450,6 @@
       <c r="BL352" t="n">
         <v>104.27</v>
       </c>
-      <c r="BN352" t="n">
-        <v>52.61000000000058</v>
-      </c>
-      <c r="BO352" t="n">
-        <v>104.27</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -72659,12 +67485,6 @@
       <c r="BL353" t="n">
         <v>104.26</v>
       </c>
-      <c r="BN353" t="n">
-        <v>52.76500000000124</v>
-      </c>
-      <c r="BO353" t="n">
-        <v>104.26</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -72700,12 +67520,6 @@
       <c r="BL354" t="n">
         <v>104.26</v>
       </c>
-      <c r="BN354" t="n">
-        <v>52.91600000000108</v>
-      </c>
-      <c r="BO354" t="n">
-        <v>104.26</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -72741,12 +67555,6 @@
       <c r="BL355" t="n">
         <v>104.26</v>
       </c>
-      <c r="BN355" t="n">
-        <v>53.06099999999969</v>
-      </c>
-      <c r="BO355" t="n">
-        <v>104.26</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -72782,12 +67590,6 @@
       <c r="BL356" t="n">
         <v>104.27</v>
       </c>
-      <c r="BN356" t="n">
-        <v>53.21200000000135</v>
-      </c>
-      <c r="BO356" t="n">
-        <v>104.27</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -72823,12 +67625,6 @@
       <c r="BL357" t="n">
         <v>104.27</v>
       </c>
-      <c r="BN357" t="n">
-        <v>53.36200000000099</v>
-      </c>
-      <c r="BO357" t="n">
-        <v>104.27</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -72864,12 +67660,6 @@
       <c r="BL358" t="n">
         <v>104.28</v>
       </c>
-      <c r="BN358" t="n">
-        <v>53.51300000000083</v>
-      </c>
-      <c r="BO358" t="n">
-        <v>104.28</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -72905,12 +67695,6 @@
       <c r="BL359" t="n">
         <v>104.27</v>
       </c>
-      <c r="BN359" t="n">
-        <v>53.66799999999967</v>
-      </c>
-      <c r="BO359" t="n">
-        <v>104.27</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -72946,12 +67730,6 @@
       <c r="BL360" t="n">
         <v>104.29</v>
       </c>
-      <c r="BN360" t="n">
-        <v>53.81800000000112</v>
-      </c>
-      <c r="BO360" t="n">
-        <v>104.29</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -72987,12 +67765,6 @@
       <c r="BL361" t="n">
         <v>104.28</v>
       </c>
-      <c r="BN361" t="n">
-        <v>53.96299999999974</v>
-      </c>
-      <c r="BO361" t="n">
-        <v>104.28</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -73028,12 +67800,6 @@
       <c r="BL362" t="n">
         <v>104.28</v>
       </c>
-      <c r="BN362" t="n">
-        <v>54.11499999999978</v>
-      </c>
-      <c r="BO362" t="n">
-        <v>104.28</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -73069,12 +67835,6 @@
       <c r="BL363" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN363" t="n">
-        <v>54.26500000000124</v>
-      </c>
-      <c r="BO363" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -73110,12 +67870,6 @@
       <c r="BL364" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN364" t="n">
-        <v>54.42000000000007</v>
-      </c>
-      <c r="BO364" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -73151,12 +67905,6 @@
       <c r="BL365" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN365" t="n">
-        <v>54.57200000000012</v>
-      </c>
-      <c r="BO365" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -73192,12 +67940,6 @@
       <c r="BL366" t="n">
         <v>104.29</v>
       </c>
-      <c r="BN366" t="n">
-        <v>54.72100000000137</v>
-      </c>
-      <c r="BO366" t="n">
-        <v>104.29</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -73233,12 +67975,6 @@
       <c r="BL367" t="n">
         <v>104.29</v>
       </c>
-      <c r="BN367" t="n">
-        <v>54.86599999999999</v>
-      </c>
-      <c r="BO367" t="n">
-        <v>104.29</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -73274,12 +68010,6 @@
       <c r="BL368" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN368" t="n">
-        <v>55.01600000000144</v>
-      </c>
-      <c r="BO368" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -73315,12 +68045,6 @@
       <c r="BL369" t="n">
         <v>104.29</v>
       </c>
-      <c r="BN369" t="n">
-        <v>55.16600000000108</v>
-      </c>
-      <c r="BO369" t="n">
-        <v>104.29</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -73356,12 +68080,6 @@
       <c r="BL370" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN370" t="n">
-        <v>55.31900000000132</v>
-      </c>
-      <c r="BO370" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -73397,12 +68115,6 @@
       <c r="BL371" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN371" t="n">
-        <v>55.47199999999975</v>
-      </c>
-      <c r="BO371" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -73438,12 +68150,6 @@
       <c r="BL372" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN372" t="n">
-        <v>55.621000000001</v>
-      </c>
-      <c r="BO372" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -73479,12 +68185,6 @@
       <c r="BL373" t="n">
         <v>104.29</v>
       </c>
-      <c r="BN373" t="n">
-        <v>55.76600000000144</v>
-      </c>
-      <c r="BO373" t="n">
-        <v>104.29</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -73520,12 +68220,6 @@
       <c r="BL374" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN374" t="n">
-        <v>55.91600000000108</v>
-      </c>
-      <c r="BO374" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -73561,12 +68255,6 @@
       <c r="BL375" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN375" t="n">
-        <v>56.06600000000071</v>
-      </c>
-      <c r="BO375" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -73596,12 +68284,6 @@
       <c r="BL376" t="n">
         <v>104.32</v>
       </c>
-      <c r="BN376" t="n">
-        <v>56.21900000000096</v>
-      </c>
-      <c r="BO376" t="n">
-        <v>104.32</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -73631,12 +68313,6 @@
       <c r="BL377" t="n">
         <v>104.32</v>
       </c>
-      <c r="BN377" t="n">
-        <v>56.37300000000141</v>
-      </c>
-      <c r="BO377" t="n">
-        <v>104.32</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -73666,12 +68342,6 @@
       <c r="BL378" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN378" t="n">
-        <v>56.52400000000125</v>
-      </c>
-      <c r="BO378" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -73701,12 +68371,6 @@
       <c r="BL379" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN379" t="n">
-        <v>56.66899999999987</v>
-      </c>
-      <c r="BO379" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -73730,12 +68394,6 @@
       <c r="BL380" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN380" t="n">
-        <v>56.81900000000132</v>
-      </c>
-      <c r="BO380" t="n">
-        <v>104.3</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -73759,12 +68417,6 @@
       <c r="BL381" t="n">
         <v>104.31</v>
       </c>
-      <c r="BN381" t="n">
-        <v>56.97000000000116</v>
-      </c>
-      <c r="BO381" t="n">
-        <v>104.31</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -73788,12 +68440,6 @@
       <c r="BL382" t="n">
         <v>104.33</v>
       </c>
-      <c r="BN382" t="n">
-        <v>57.121000000001</v>
-      </c>
-      <c r="BO382" t="n">
-        <v>104.33</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -73817,12 +68463,6 @@
       <c r="BL383" t="n">
         <v>104.33</v>
       </c>
-      <c r="BN383" t="n">
-        <v>57.27599999999984</v>
-      </c>
-      <c r="BO383" t="n">
-        <v>104.33</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -73846,12 +68486,6 @@
       <c r="BL384" t="n">
         <v>104.33</v>
       </c>
-      <c r="BN384" t="n">
-        <v>57.42699999999968</v>
-      </c>
-      <c r="BO384" t="n">
-        <v>104.33</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -73875,12 +68509,6 @@
       <c r="BL385" t="n">
         <v>104.33</v>
       </c>
-      <c r="BN385" t="n">
-        <v>57.57200000000012</v>
-      </c>
-      <c r="BO385" t="n">
-        <v>104.33</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -73904,12 +68532,6 @@
       <c r="BL386" t="n">
         <v>104.32</v>
       </c>
-      <c r="BN386" t="n">
-        <v>57.72500000000036</v>
-      </c>
-      <c r="BO386" t="n">
-        <v>104.32</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -73933,12 +68555,6 @@
       <c r="BL387" t="n">
         <v>104.33</v>
       </c>
-      <c r="BN387" t="n">
-        <v>57.87300000000141</v>
-      </c>
-      <c r="BO387" t="n">
-        <v>104.33</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -73962,12 +68578,6 @@
       <c r="BL388" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN388" t="n">
-        <v>58.02499999999964</v>
-      </c>
-      <c r="BO388" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -73991,12 +68601,6 @@
       <c r="BL389" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN389" t="n">
-        <v>58.17900000000009</v>
-      </c>
-      <c r="BO389" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -74020,12 +68624,6 @@
       <c r="BL390" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN390" t="n">
-        <v>58.32500000000073</v>
-      </c>
-      <c r="BO390" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -74049,12 +68647,6 @@
       <c r="BL391" t="n">
         <v>104.36</v>
       </c>
-      <c r="BN391" t="n">
-        <v>58.47600000000057</v>
-      </c>
-      <c r="BO391" t="n">
-        <v>104.36</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -74078,12 +68670,6 @@
       <c r="BL392" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN392" t="n">
-        <v>58.6260000000002</v>
-      </c>
-      <c r="BO392" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -74107,12 +68693,6 @@
       <c r="BL393" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN393" t="n">
-        <v>58.77599999999984</v>
-      </c>
-      <c r="BO393" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -74136,12 +68716,6 @@
       <c r="BL394" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN394" t="n">
-        <v>58.9320000000007</v>
-      </c>
-      <c r="BO394" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -74165,12 +68739,6 @@
       <c r="BL395" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN395" t="n">
-        <v>59.08300000000054</v>
-      </c>
-      <c r="BO395" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -74194,12 +68762,6 @@
       <c r="BL396" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN396" t="n">
-        <v>59.22700000000077</v>
-      </c>
-      <c r="BO396" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -74223,12 +68785,6 @@
       <c r="BL397" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN397" t="n">
-        <v>59.37800000000061</v>
-      </c>
-      <c r="BO397" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -74252,12 +68808,6 @@
       <c r="BL398" t="n">
         <v>104.35</v>
       </c>
-      <c r="BN398" t="n">
-        <v>59.52800000000025</v>
-      </c>
-      <c r="BO398" t="n">
-        <v>104.35</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -74281,12 +68831,6 @@
       <c r="BL399" t="n">
         <v>104.36</v>
       </c>
-      <c r="BN399" t="n">
-        <v>59.67900000000009</v>
-      </c>
-      <c r="BO399" t="n">
-        <v>104.36</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -74310,12 +68854,6 @@
       <c r="BL400" t="n">
         <v>104.36</v>
       </c>
-      <c r="BN400" t="n">
-        <v>59.83400000000074</v>
-      </c>
-      <c r="BO400" t="n">
-        <v>104.36</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -74339,12 +68877,6 @@
       <c r="BL401" t="n">
         <v>104.37</v>
       </c>
-      <c r="BN401" t="n">
-        <v>59.98400000000038</v>
-      </c>
-      <c r="BO401" t="n">
-        <v>104.37</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -74368,12 +68900,6 @@
       <c r="BL402" t="n">
         <v>104.37</v>
       </c>
-      <c r="BN402" t="n">
-        <v>60.12800000000061</v>
-      </c>
-      <c r="BO402" t="n">
-        <v>104.37</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -74397,12 +68923,6 @@
       <c r="BL403" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN403" t="n">
-        <v>60.27900000000045</v>
-      </c>
-      <c r="BO403" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -74426,12 +68946,6 @@
       <c r="BL404" t="n">
         <v>104.38</v>
       </c>
-      <c r="BN404" t="n">
-        <v>60.43000000000029</v>
-      </c>
-      <c r="BO404" t="n">
-        <v>104.38</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -74455,12 +68969,6 @@
       <c r="BL405" t="n">
         <v>104.37</v>
       </c>
-      <c r="BN405" t="n">
-        <v>60.57999999999993</v>
-      </c>
-      <c r="BO405" t="n">
-        <v>104.37</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -74484,12 +68992,6 @@
       <c r="BL406" t="n">
         <v>104.36</v>
       </c>
-      <c r="BN406" t="n">
-        <v>60.73700000000099</v>
-      </c>
-      <c r="BO406" t="n">
-        <v>104.36</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -74513,12 +69015,6 @@
       <c r="BL407" t="n">
         <v>104.36</v>
       </c>
-      <c r="BN407" t="n">
-        <v>60.88600000000042</v>
-      </c>
-      <c r="BO407" t="n">
-        <v>104.36</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -74542,12 +69038,6 @@
       <c r="BL408" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN408" t="n">
-        <v>61.03600000000006</v>
-      </c>
-      <c r="BO408" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -74571,12 +69061,6 @@
       <c r="BL409" t="n">
         <v>104.38</v>
       </c>
-      <c r="BN409" t="n">
-        <v>61.18100000000049</v>
-      </c>
-      <c r="BO409" t="n">
-        <v>104.38</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -74600,12 +69084,6 @@
       <c r="BL410" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN410" t="n">
-        <v>61.32999999999993</v>
-      </c>
-      <c r="BO410" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -74629,12 +69107,6 @@
       <c r="BL411" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN411" t="n">
-        <v>61.48099999999977</v>
-      </c>
-      <c r="BO411" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -74658,12 +69130,6 @@
       <c r="BL412" t="n">
         <v>104.37</v>
       </c>
-      <c r="BN412" t="n">
-        <v>61.63700000000063</v>
-      </c>
-      <c r="BO412" t="n">
-        <v>104.37</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -74687,12 +69153,6 @@
       <c r="BL413" t="n">
         <v>104.37</v>
       </c>
-      <c r="BN413" t="n">
-        <v>61.78900000000067</v>
-      </c>
-      <c r="BO413" t="n">
-        <v>104.37</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -74716,12 +69176,6 @@
       <c r="BL414" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN414" t="n">
-        <v>61.9330000000009</v>
-      </c>
-      <c r="BO414" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -74745,12 +69199,6 @@
       <c r="BL415" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN415" t="n">
-        <v>62.08300000000054</v>
-      </c>
-      <c r="BO415" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -74774,12 +69222,6 @@
       <c r="BL416" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN416" t="n">
-        <v>62.23300000000017</v>
-      </c>
-      <c r="BO416" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -74803,12 +69245,6 @@
       <c r="BL417" t="n">
         <v>104.39</v>
       </c>
-      <c r="BN417" t="n">
-        <v>62.38200000000143</v>
-      </c>
-      <c r="BO417" t="n">
-        <v>104.39</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -74832,12 +69268,6 @@
       <c r="BL418" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN418" t="n">
-        <v>62.54200000000128</v>
-      </c>
-      <c r="BO418" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -74861,12 +69291,6 @@
       <c r="BL419" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN419" t="n">
-        <v>62.69400000000132</v>
-      </c>
-      <c r="BO419" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -74890,12 +69314,6 @@
       <c r="BL420" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN420" t="n">
-        <v>62.83799999999974</v>
-      </c>
-      <c r="BO420" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -74919,12 +69337,6 @@
       <c r="BL421" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN421" t="n">
-        <v>62.9890000000014</v>
-      </c>
-      <c r="BO421" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -74948,12 +69360,6 @@
       <c r="BL422" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN422" t="n">
-        <v>63.13800000000083</v>
-      </c>
-      <c r="BO422" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -74977,12 +69383,6 @@
       <c r="BL423" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN423" t="n">
-        <v>63.28900000000067</v>
-      </c>
-      <c r="BO423" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -75006,12 +69406,6 @@
       <c r="BL424" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN424" t="n">
-        <v>63.44400000000132</v>
-      </c>
-      <c r="BO424" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -75035,12 +69429,6 @@
       <c r="BL425" t="n">
         <v>104.4</v>
       </c>
-      <c r="BN425" t="n">
-        <v>63.59500000000116</v>
-      </c>
-      <c r="BO425" t="n">
-        <v>104.4</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -75064,12 +69452,6 @@
       <c r="BL426" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN426" t="n">
-        <v>63.746000000001</v>
-      </c>
-      <c r="BO426" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -75093,12 +69475,6 @@
       <c r="BL427" t="n">
         <v>104.42</v>
       </c>
-      <c r="BN427" t="n">
-        <v>63.89000000000124</v>
-      </c>
-      <c r="BO427" t="n">
-        <v>104.42</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -75122,12 +69498,6 @@
       <c r="BL428" t="n">
         <v>104.43</v>
       </c>
-      <c r="BN428" t="n">
-        <v>64.04000000000087</v>
-      </c>
-      <c r="BO428" t="n">
-        <v>104.43</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -75151,12 +69521,6 @@
       <c r="BL429" t="n">
         <v>104.42</v>
       </c>
-      <c r="BN429" t="n">
-        <v>64.19100000000071</v>
-      </c>
-      <c r="BO429" t="n">
-        <v>104.42</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -75180,12 +69544,6 @@
       <c r="BL430" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN430" t="n">
-        <v>64.34500000000116</v>
-      </c>
-      <c r="BO430" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -75209,12 +69567,6 @@
       <c r="BL431" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN431" t="n">
-        <v>64.49700000000121</v>
-      </c>
-      <c r="BO431" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -75238,12 +69590,6 @@
       <c r="BL432" t="n">
         <v>104.41</v>
       </c>
-      <c r="BN432" t="n">
-        <v>64.64000000000124</v>
-      </c>
-      <c r="BO432" t="n">
-        <v>104.41</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -75261,12 +69607,6 @@
       <c r="BL433" t="n">
         <v>104.42</v>
       </c>
-      <c r="BN433" t="n">
-        <v>64.79200000000128</v>
-      </c>
-      <c r="BO433" t="n">
-        <v>104.42</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -75284,12 +69624,6 @@
       <c r="BL434" t="n">
         <v>104.43</v>
       </c>
-      <c r="BN434" t="n">
-        <v>64.94200000000092</v>
-      </c>
-      <c r="BO434" t="n">
-        <v>104.43</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -75307,12 +69641,6 @@
       <c r="BL435" t="n">
         <v>104.42</v>
       </c>
-      <c r="BN435" t="n">
-        <v>65.09300000000076</v>
-      </c>
-      <c r="BO435" t="n">
-        <v>104.42</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -75330,12 +69658,6 @@
       <c r="BL436" t="n">
         <v>104.42</v>
       </c>
-      <c r="BN436" t="n">
-        <v>65.2489999999998</v>
-      </c>
-      <c r="BO436" t="n">
-        <v>104.42</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -75353,12 +69675,6 @@
       <c r="BL437" t="n">
         <v>104.43</v>
       </c>
-      <c r="BN437" t="n">
-        <v>65.39700000000084</v>
-      </c>
-      <c r="BO437" t="n">
-        <v>104.43</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -75376,12 +69692,6 @@
       <c r="BL438" t="n">
         <v>104.44</v>
       </c>
-      <c r="BN438" t="n">
-        <v>65.54200000000128</v>
-      </c>
-      <c r="BO438" t="n">
-        <v>104.44</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -75399,12 +69709,6 @@
       <c r="BL439" t="n">
         <v>104.44</v>
       </c>
-      <c r="BN439" t="n">
-        <v>65.69499999999971</v>
-      </c>
-      <c r="BO439" t="n">
-        <v>104.44</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -75422,12 +69726,6 @@
       <c r="BL440" t="n">
         <v>104.44</v>
       </c>
-      <c r="BN440" t="n">
-        <v>65.84400000000096</v>
-      </c>
-      <c r="BO440" t="n">
-        <v>104.44</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -75445,12 +69743,6 @@
       <c r="BL441" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN441" t="n">
-        <v>65.99800000000141</v>
-      </c>
-      <c r="BO441" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -75468,12 +69760,6 @@
       <c r="BL442" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN442" t="n">
-        <v>66.14999999999964</v>
-      </c>
-      <c r="BO442" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -75491,12 +69777,6 @@
       <c r="BL443" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN443" t="n">
-        <v>66.30000000000109</v>
-      </c>
-      <c r="BO443" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -75514,12 +69794,6 @@
       <c r="BL444" t="n">
         <v>104.43</v>
       </c>
-      <c r="BN444" t="n">
-        <v>66.44499999999971</v>
-      </c>
-      <c r="BO444" t="n">
-        <v>104.43</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -75537,12 +69811,6 @@
       <c r="BL445" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN445" t="n">
-        <v>66.59699999999975</v>
-      </c>
-      <c r="BO445" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -75560,12 +69828,6 @@
       <c r="BL446" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN446" t="n">
-        <v>66.74700000000121</v>
-      </c>
-      <c r="BO446" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -75583,12 +69845,6 @@
       <c r="BL447" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN447" t="n">
-        <v>66.89900000000125</v>
-      </c>
-      <c r="BO447" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -75606,12 +69862,6 @@
       <c r="BL448" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN448" t="n">
-        <v>67.05299999999988</v>
-      </c>
-      <c r="BO448" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -75629,12 +69879,6 @@
       <c r="BL449" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN449" t="n">
-        <v>67.19800000000032</v>
-      </c>
-      <c r="BO449" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -75652,12 +69896,6 @@
       <c r="BL450" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN450" t="n">
-        <v>67.34799999999996</v>
-      </c>
-      <c r="BO450" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -75675,12 +69913,6 @@
       <c r="BL451" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN451" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="BO451" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -75698,12 +69930,6 @@
       <c r="BL452" t="n">
         <v>104.45</v>
       </c>
-      <c r="BN452" t="n">
-        <v>67.64999999999964</v>
-      </c>
-      <c r="BO452" t="n">
-        <v>104.45</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -75721,12 +69947,6 @@
       <c r="BL453" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN453" t="n">
-        <v>67.80400000000009</v>
-      </c>
-      <c r="BO453" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -75744,12 +69964,6 @@
       <c r="BL454" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN454" t="n">
-        <v>67.95700000000033</v>
-      </c>
-      <c r="BO454" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -75767,12 +69981,6 @@
       <c r="BL455" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN455" t="n">
-        <v>68.10599999999977</v>
-      </c>
-      <c r="BO455" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -75790,12 +69998,6 @@
       <c r="BL456" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN456" t="n">
-        <v>68.2510000000002</v>
-      </c>
-      <c r="BO456" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -75813,12 +70015,6 @@
       <c r="BL457" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN457" t="n">
-        <v>68.40099999999984</v>
-      </c>
-      <c r="BO457" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -75836,12 +70032,6 @@
       <c r="BL458" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN458" t="n">
-        <v>68.5510000000013</v>
-      </c>
-      <c r="BO458" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -75859,12 +70049,6 @@
       <c r="BL459" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN459" t="n">
-        <v>68.70399999999972</v>
-      </c>
-      <c r="BO459" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -75882,12 +70066,6 @@
       <c r="BL460" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN460" t="n">
-        <v>68.85599999999977</v>
-      </c>
-      <c r="BO460" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -75905,12 +70083,6 @@
       <c r="BL461" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN461" t="n">
-        <v>69.00700000000143</v>
-      </c>
-      <c r="BO461" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -75928,12 +70100,6 @@
       <c r="BL462" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN462" t="n">
-        <v>69.15099999999984</v>
-      </c>
-      <c r="BO462" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -75951,12 +70117,6 @@
       <c r="BL463" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN463" t="n">
-        <v>69.30000000000109</v>
-      </c>
-      <c r="BO463" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -75974,12 +70134,6 @@
       <c r="BL464" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN464" t="n">
-        <v>69.45100000000093</v>
-      </c>
-      <c r="BO464" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -75997,12 +70151,6 @@
       <c r="BL465" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN465" t="n">
-        <v>69.60300000000097</v>
-      </c>
-      <c r="BO465" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -76020,12 +70168,6 @@
       <c r="BL466" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN466" t="n">
-        <v>69.75600000000122</v>
-      </c>
-      <c r="BO466" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -76043,12 +70185,6 @@
       <c r="BL467" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN467" t="n">
-        <v>69.90200000000004</v>
-      </c>
-      <c r="BO467" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -76066,12 +70202,6 @@
       <c r="BL468" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN468" t="n">
-        <v>70.05199999999968</v>
-      </c>
-      <c r="BO468" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -76089,12 +70219,6 @@
       <c r="BL469" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN469" t="n">
-        <v>70.20300000000134</v>
-      </c>
-      <c r="BO469" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -76112,12 +70236,6 @@
       <c r="BL470" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN470" t="n">
-        <v>70.35200000000077</v>
-      </c>
-      <c r="BO470" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -76135,12 +70253,6 @@
       <c r="BL471" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN471" t="n">
-        <v>70.50799999999981</v>
-      </c>
-      <c r="BO471" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -76158,12 +70270,6 @@
       <c r="BL472" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN472" t="n">
-        <v>70.65899999999965</v>
-      </c>
-      <c r="BO472" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -76181,12 +70287,6 @@
       <c r="BL473" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN473" t="n">
-        <v>70.8080000000009</v>
-      </c>
-      <c r="BO473" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -76204,12 +70304,6 @@
       <c r="BL474" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN474" t="n">
-        <v>70.95300000000134</v>
-      </c>
-      <c r="BO474" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -76227,12 +70321,6 @@
       <c r="BL475" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN475" t="n">
-        <v>71.10300000000097</v>
-      </c>
-      <c r="BO475" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -76250,12 +70338,6 @@
       <c r="BL476" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN476" t="n">
-        <v>71.25300000000061</v>
-      </c>
-      <c r="BO476" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -76273,12 +70355,6 @@
       <c r="BL477" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN477" t="n">
-        <v>71.40700000000106</v>
-      </c>
-      <c r="BO477" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -76296,12 +70372,6 @@
       <c r="BL478" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN478" t="n">
-        <v>71.5580000000009</v>
-      </c>
-      <c r="BO478" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -76319,12 +70389,6 @@
       <c r="BL479" t="n">
         <v>104.46</v>
       </c>
-      <c r="BN479" t="n">
-        <v>71.70200000000114</v>
-      </c>
-      <c r="BO479" t="n">
-        <v>104.46</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -76342,12 +70406,6 @@
       <c r="BL480" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN480" t="n">
-        <v>71.85300000000097</v>
-      </c>
-      <c r="BO480" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -76365,12 +70423,6 @@
       <c r="BL481" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN481" t="n">
-        <v>72.00400000000081</v>
-      </c>
-      <c r="BO481" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -76388,12 +70440,6 @@
       <c r="BL482" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN482" t="n">
-        <v>72.15400000000045</v>
-      </c>
-      <c r="BO482" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -76411,12 +70457,6 @@
       <c r="BL483" t="n">
         <v>104.47</v>
       </c>
-      <c r="BN483" t="n">
-        <v>72.30900000000111</v>
-      </c>
-      <c r="BO483" t="n">
-        <v>104.47</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -76434,12 +70474,6 @@
       <c r="BL484" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN484" t="n">
-        <v>72.46000000000095</v>
-      </c>
-      <c r="BO484" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -76457,12 +70491,6 @@
       <c r="BL485" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN485" t="n">
-        <v>72.60500000000138</v>
-      </c>
-      <c r="BO485" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -76480,12 +70508,6 @@
       <c r="BL486" t="n">
         <v>104.5</v>
       </c>
-      <c r="BN486" t="n">
-        <v>72.75500000000102</v>
-      </c>
-      <c r="BO486" t="n">
-        <v>104.5</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -76497,12 +70519,6 @@
       <c r="BL487" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN487" t="n">
-        <v>72.90500000000065</v>
-      </c>
-      <c r="BO487" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -76514,12 +70530,6 @@
       <c r="BL488" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN488" t="n">
-        <v>73.06000000000131</v>
-      </c>
-      <c r="BO488" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -76531,12 +70541,6 @@
       <c r="BL489" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN489" t="n">
-        <v>73.21100000000115</v>
-      </c>
-      <c r="BO489" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -76548,12 +70552,6 @@
       <c r="BL490" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN490" t="n">
-        <v>73.36100000000079</v>
-      </c>
-      <c r="BO490" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -76565,12 +70563,6 @@
       <c r="BL491" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN491" t="n">
-        <v>73.50500000000102</v>
-      </c>
-      <c r="BO491" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -76582,12 +70574,6 @@
       <c r="BL492" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN492" t="n">
-        <v>73.65700000000106</v>
-      </c>
-      <c r="BO492" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -76599,12 +70585,6 @@
       <c r="BL493" t="n">
         <v>104.49</v>
       </c>
-      <c r="BN493" t="n">
-        <v>73.80600000000049</v>
-      </c>
-      <c r="BO493" t="n">
-        <v>104.49</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -76616,12 +70596,6 @@
       <c r="BL494" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN494" t="n">
-        <v>73.95900000000074</v>
-      </c>
-      <c r="BO494" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -76633,12 +70607,6 @@
       <c r="BL495" t="n">
         <v>104.48</v>
       </c>
-      <c r="BN495" t="n">
-        <v>74.1140000000014</v>
-      </c>
-      <c r="BO495" t="n">
-        <v>104.48</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -76648,12 +70616,6 @@
         <v>74.26600000000144</v>
       </c>
       <c r="BL496" t="n">
-        <v>104.49</v>
-      </c>
-      <c r="BN496" t="n">
-        <v>74.26600000000144</v>
-      </c>
-      <c r="BO496" t="n">
         <v>104.49</v>
       </c>
     </row>
@@ -76669,7 +70631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77403,39 +71365,6 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PCR #46 202301053.txt</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7510000000002037</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.051000000001295</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.352000000000771</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.659999999999854</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.266999999999825</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.002000000000407</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.706000000000131</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
+++ b/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="full" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="time to temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="full" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time to temp" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <layout/>
@@ -172,14 +172,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1562,14 +1562,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3852,14 +3852,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5560,14 +5560,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6590,14 +6590,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7512,14 +7512,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8620,14 +8620,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9206,14 +9206,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9936,14 +9936,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -12250,14 +12250,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -13412,14 +13412,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -14472,14 +14472,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -17428,14 +17428,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -19178,14 +19178,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -20532,14 +20532,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -22372,14 +22372,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -23726,14 +23726,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -26358,14 +26358,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -27820,14 +27820,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -28832,14 +28832,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -30846,14 +30846,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -33860,9 +33860,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -33895,9 +33895,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -33930,7 +33930,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <lineChart>
@@ -33944,14 +33944,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -33976,14 +33976,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34008,14 +34008,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34040,14 +34040,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34072,14 +34072,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34104,14 +34104,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34136,14 +34136,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34168,14 +34168,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34200,14 +34200,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34232,14 +34232,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34264,14 +34264,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34296,14 +34296,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34328,14 +34328,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34360,14 +34360,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34392,14 +34392,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34424,14 +34424,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34456,14 +34456,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34488,14 +34488,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34520,14 +34520,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34552,14 +34552,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34584,14 +34584,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34643,7 +34643,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>3</col>
@@ -34663,9 +34663,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -34675,7 +34675,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>10</col>
@@ -34690,9 +34690,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -34985,7 +34985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -70621,12 +70621,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -70701,7 +70701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -70800,7 +70800,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -70866,7 +70866,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -70998,7 +70998,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71064,7 +71064,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71097,7 +71097,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71130,7 +71130,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71163,7 +71163,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71229,7 +71229,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71262,7 +71262,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71295,7 +71295,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71328,7 +71328,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -71361,12 +71361,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
+++ b/analysis/heat/dataqstuff/dataCollect/thermoBoatTEC/PCR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="full" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time to temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="full" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="time to temp" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <layout/>
@@ -172,14 +172,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1562,14 +1562,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3852,14 +3852,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5560,14 +5560,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6590,14 +6590,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7512,14 +7512,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8620,14 +8620,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9206,14 +9206,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -9936,14 +9936,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -12250,14 +12250,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -13412,14 +13412,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -14472,14 +14472,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -17428,14 +17428,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -19178,14 +19178,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -20532,14 +20532,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -22372,14 +22372,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -23726,14 +23726,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -26358,14 +26358,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -27820,14 +27820,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -28832,14 +28832,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -30846,14 +30846,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -33860,9 +33860,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -33895,9 +33895,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -33930,7 +33930,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <lineChart>
@@ -33944,14 +33944,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -33976,14 +33976,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34008,14 +34008,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34040,14 +34040,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34072,14 +34072,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34104,14 +34104,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34136,14 +34136,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34168,14 +34168,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34200,14 +34200,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34232,14 +34232,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34264,14 +34264,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34296,14 +34296,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34328,14 +34328,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34360,14 +34360,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34392,14 +34392,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34424,14 +34424,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34456,14 +34456,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34488,14 +34488,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34520,14 +34520,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34552,14 +34552,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34584,14 +34584,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -34643,7 +34643,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>3</col>
@@ -34663,9 +34663,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -34675,7 +34675,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>10</col>
@@ -34690,9 +34690,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -34985,7 +34985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -70621,12 +70621,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -70701,7 +70701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70800,7 +70800,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70833,7 +70833,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70866,7 +70866,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70899,7 +70899,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70932,7 +70932,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -70998,7 +70998,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71031,7 +71031,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71064,7 +71064,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71097,7 +71097,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71130,7 +71130,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71163,7 +71163,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71229,7 +71229,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71262,7 +71262,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71295,7 +71295,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71328,7 +71328,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -71361,12 +71361,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>